--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B678FA56-5B56-49B3-A577-C25D1A1351CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343F330-1978-4013-945A-348675616076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25860" yWindow="4980" windowWidth="5805" windowHeight="15510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapters Count" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$A$1:$B$67</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Book</t>
   </si>
@@ -229,6 +233,12 @@
   </si>
   <si>
     <t>Revelation</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>NumBooks</t>
   </si>
 </sst>
 </file>
@@ -252,12 +262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -282,9 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -566,17 +583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -603,7 +621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -627,7 +645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -635,7 +653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -643,7 +661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -651,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -659,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -667,7 +685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -675,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -683,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -699,7 +717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -707,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -715,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -739,7 +757,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -747,7 +765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -755,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -779,7 +797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -795,7 +813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -803,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -811,7 +829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -819,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -827,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -835,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -843,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -851,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -859,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -867,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -875,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -883,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -891,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -899,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -907,7 +925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -915,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -923,7 +941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -931,7 +949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -939,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -947,7 +965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -955,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -963,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -971,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -979,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1003,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1011,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1051,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1067,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1083,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1107,12 +1125,1247 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B67" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="greaterThan" val="33"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B32A8-9917-41D6-A083-F346D1222EB2}">
+  <dimension ref="A1:B151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343F330-1978-4013-945A-348675616076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F99D1D-595E-4E09-BAB0-947A468F675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25860" yWindow="4980" windowWidth="5805" windowHeight="15510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
     <sheet name="Chapters Count" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$A$1:$B$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$B$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Book</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>NumBooks</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -583,564 +586,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B67" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="greaterThan" val="33"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:C67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1149,9 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B32A8-9917-41D6-A083-F346D1222EB2}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F99D1D-595E-4E09-BAB0-947A468F675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5308AB-0CBB-44E0-8F8D-EA30073C1F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +586,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -765,7 +766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -776,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -787,7 +788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -831,7 +832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -842,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -875,7 +876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -897,7 +898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -908,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -919,7 +920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -930,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -941,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -952,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -963,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -974,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -985,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -996,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1338,7 +1339,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:C67" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="greaterThan" val="15"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1347,9 +1354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B32A8-9917-41D6-A083-F346D1222EB2}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,90 +1374,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>34</v>
       </c>
     </row>
@@ -1463,146 +1470,146 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>12</v>
       </c>
     </row>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E31305-74D1-4E8E-87E3-8288C80E812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0246551-4DAC-492E-939B-241E4837738D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -1026,6 +1026,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242EF3D9-AF98-4768-AC7B-662D28C8172B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="5772150"/>
+          <a:ext cx="3314700" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> am unsure of the exact accuracy of this data as it came from a Catholic website.  Their Bible has extra books and verses compared to the KJV.  I have not checked all of these numbers manually.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4210,7 +4296,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12196,6 +12282,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0246551-4DAC-492E-939B-241E4837738D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3966B5-BA01-45A0-80DB-79F0D119CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,16 +972,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -998,20 +1011,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1032,16 +1064,96 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD136F3-A5A5-49BF-9919-422A4029E49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="34194751"/>
+          <a:ext cx="3571875" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> number matches this website: https://www.biblebelievers.com/believers-org/kjv-stats.html?_e_pi_=7%2CPAGE_ID10%2C1665113068</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1056,7 +1168,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11115675" y="5772150"/>
+          <a:off x="2476500" y="13344525"/>
           <a:ext cx="3314700" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1092,7 +1204,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
             <a:t>Notes</a:t>
           </a:r>
         </a:p>
@@ -1103,7 +1215,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> am unsure of the exact accuracy of this data as it came from a Catholic website.  Their Bible has extra books and verses compared to the KJV.  I have not checked all of these numbers manually.</a:t>
+            <a:t> am unsure of the exact accuracy of this data as it came from a Catholic website.  Their Bible has extra books and verses compared to the KJV.  I have not checked all of these numbers manually.  Their total verse count is 167 verses over </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1385,11 +1497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B67"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,6 +2248,12 @@
         <v>22</v>
       </c>
     </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="6">
+        <f>SUM(C2:C67)</f>
+        <v>1189</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C67">
@@ -2148,11 +2266,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B32A8-9917-41D6-A083-F346D1222EB2}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,6 +3485,12 @@
       </c>
       <c r="B151">
         <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="6">
+        <f>SUM(B2:B151)</f>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -3381,11 +3505,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,897 +3530,1432 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1189</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1189</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1188</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1184</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1183</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1174</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1162</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1152</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1135</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1118</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1098</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1075</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1049</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1012</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="6">
+        <f>SUM(B2:B177)</f>
+        <v>31102</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
-  <dimension ref="A1:EW67"/>
+  <dimension ref="A1:EW68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12277,6 +12936,12 @@
         <v>265</v>
       </c>
     </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C68" s="7">
+        <f>SUM(C2:C67)</f>
+        <v>31269</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:EW67" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3966B5-BA01-45A0-80DB-79F0D119CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A87CA7-3CF0-495B-8DCD-5B46A709F3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="75" windowWidth="5805" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,8 +980,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,6 +998,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1027,12 +1045,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1041,8 +1060,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3507,9 +3529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}">
   <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,7 +3552,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>1189</v>
       </c>
     </row>
@@ -3538,7 +3560,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>1189</v>
       </c>
     </row>
@@ -3546,7 +3568,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>1188</v>
       </c>
     </row>
@@ -3554,7 +3576,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>1184</v>
       </c>
     </row>
@@ -3562,7 +3584,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>1183</v>
       </c>
     </row>
@@ -3570,7 +3592,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>1174</v>
       </c>
     </row>
@@ -3578,7 +3600,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>1162</v>
       </c>
     </row>
@@ -3586,7 +3608,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>1152</v>
       </c>
     </row>
@@ -3594,7 +3616,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>1135</v>
       </c>
     </row>
@@ -3602,7 +3624,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>1118</v>
       </c>
     </row>
@@ -3610,7 +3632,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>1098</v>
       </c>
     </row>
@@ -4943,7 +4965,8 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4951,7 +4974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
   <dimension ref="A1:EW68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A87CA7-3CF0-495B-8DCD-5B46A709F3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E17C5-8787-4BD0-AC54-28DF87390A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="75" windowWidth="5805" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -3527,11 +3527,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}">
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,7 +3540,7 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3596,15 +3596,18 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="9">
         <v>1162</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4974,11 +4977,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
   <dimension ref="A1:EW68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5456,161 +5459,161 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5">
         <f>SUM(D2:EW2)</f>
         <v>1533</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>31</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>25</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>26</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2">
         <v>32</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <v>22</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2">
         <v>24</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2">
         <v>22</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2">
         <v>29</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2">
         <v>32</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2">
         <v>32</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2">
         <v>18</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
         <v>24</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2">
         <v>21</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2">
         <v>16</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2">
         <v>27</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2">
         <v>33</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2">
         <v>38</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2">
         <v>18</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2">
         <v>34</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2">
         <v>24</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2">
         <v>20</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2">
         <v>67</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2">
         <v>34</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2">
         <v>35</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2">
         <v>46</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2">
         <v>22</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2">
         <v>35</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2">
         <v>43</v>
       </c>
-      <c r="AH2" s="5">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="5">
+      <c r="AH2">
+        <v>55</v>
+      </c>
+      <c r="AI2">
+        <v>32</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>31</v>
+      </c>
+      <c r="AL2">
+        <v>29</v>
+      </c>
+      <c r="AM2">
+        <v>43</v>
+      </c>
+      <c r="AN2">
+        <v>36</v>
+      </c>
+      <c r="AO2">
+        <v>30</v>
+      </c>
+      <c r="AP2">
+        <v>23</v>
+      </c>
+      <c r="AQ2">
+        <v>23</v>
+      </c>
+      <c r="AR2">
+        <v>57</v>
+      </c>
+      <c r="AS2">
+        <v>38</v>
+      </c>
+      <c r="AT2">
+        <v>34</v>
+      </c>
+      <c r="AU2">
+        <v>34</v>
+      </c>
+      <c r="AV2">
+        <v>28</v>
+      </c>
+      <c r="AW2">
+        <v>34</v>
+      </c>
+      <c r="AX2">
+        <v>31</v>
+      </c>
+      <c r="AY2">
+        <v>22</v>
+      </c>
+      <c r="AZ2">
         <v>33</v>
       </c>
-      <c r="AJ2" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>31</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>29</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>43</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>36</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>30</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>23</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>23</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>57</v>
-      </c>
-      <c r="AS2" s="5">
-        <v>38</v>
-      </c>
-      <c r="AT2" s="5">
-        <v>34</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>34</v>
-      </c>
-      <c r="AV2" s="5">
-        <v>28</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>34</v>
-      </c>
-      <c r="AX2" s="5">
-        <v>31</v>
-      </c>
-      <c r="AY2" s="5">
-        <v>22</v>
-      </c>
-      <c r="AZ2" s="5">
-        <v>33</v>
-      </c>
-      <c r="BA2" s="5">
+      <c r="BA2">
         <v>26</v>
       </c>
     </row>
@@ -5618,131 +5621,131 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5">
         <f>SUM(D3:EW3)</f>
         <v>1213</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>22</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>25</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>22</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>31</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3">
         <v>29</v>
       </c>
-      <c r="K3" s="5">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3">
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <v>36</v>
+      </c>
+      <c r="T3">
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>27</v>
+      </c>
+      <c r="V3">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>36</v>
+      </c>
+      <c r="Y3">
+        <v>31</v>
+      </c>
+      <c r="Z3">
+        <v>33</v>
+      </c>
+      <c r="AA3">
+        <v>18</v>
+      </c>
+      <c r="AB3">
+        <v>40</v>
+      </c>
+      <c r="AC3">
+        <v>37</v>
+      </c>
+      <c r="AD3">
+        <v>21</v>
+      </c>
+      <c r="AE3">
+        <v>43</v>
+      </c>
+      <c r="AF3">
+        <v>46</v>
+      </c>
+      <c r="AG3">
+        <v>38</v>
+      </c>
+      <c r="AH3">
+        <v>18</v>
+      </c>
+      <c r="AI3">
         <v>35</v>
       </c>
-      <c r="M3" s="5">
+      <c r="AJ3">
+        <v>23</v>
+      </c>
+      <c r="AK3">
+        <v>35</v>
+      </c>
+      <c r="AL3">
+        <v>35</v>
+      </c>
+      <c r="AM3">
+        <v>38</v>
+      </c>
+      <c r="AN3">
         <v>29</v>
       </c>
-      <c r="N3" s="5">
-        <v>10</v>
-      </c>
-      <c r="O3" s="5">
-        <v>51</v>
-      </c>
-      <c r="P3" s="5">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="AO3">
         <v>31</v>
       </c>
-      <c r="R3" s="5">
-        <v>27</v>
-      </c>
-      <c r="S3" s="5">
-        <v>36</v>
-      </c>
-      <c r="T3" s="5">
-        <v>16</v>
-      </c>
-      <c r="U3" s="5">
-        <v>27</v>
-      </c>
-      <c r="V3" s="5">
-        <v>25</v>
-      </c>
-      <c r="W3" s="5">
-        <v>26</v>
-      </c>
-      <c r="X3" s="5">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>21</v>
-      </c>
-      <c r="AE3" s="5">
+      <c r="AP3">
         <v>43</v>
       </c>
-      <c r="AF3" s="5">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>35</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>23</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>35</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>38</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>29</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>31</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>43</v>
-      </c>
-      <c r="AQ3" s="5">
+      <c r="AQ3">
         <v>38</v>
       </c>
       <c r="AR3" s="5" t="s">
@@ -5780,93 +5783,93 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C67" si="0">SUM(D4:EW4)</f>
-        <v>859</v>
-      </c>
-      <c r="D4" s="5">
+        <v>846</v>
+      </c>
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>35</v>
       </c>
-      <c r="H4" s="5">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>47</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>57</v>
+      </c>
+      <c r="R4">
+        <v>33</v>
+      </c>
+      <c r="S4">
+        <v>34</v>
+      </c>
+      <c r="T4">
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>37</v>
+      </c>
+      <c r="W4">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>24</v>
+      </c>
+      <c r="Y4">
+        <v>33</v>
+      </c>
+      <c r="Z4">
+        <v>44</v>
+      </c>
+      <c r="AA4">
         <v>23</v>
       </c>
-      <c r="J4" s="5">
-        <v>38</v>
-      </c>
-      <c r="K4" s="5">
-        <v>36</v>
-      </c>
-      <c r="L4" s="5">
-        <v>24</v>
-      </c>
-      <c r="M4" s="5">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5">
-        <v>47</v>
-      </c>
-      <c r="O4" s="5">
-        <v>8</v>
-      </c>
-      <c r="P4" s="5">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>57</v>
-      </c>
-      <c r="R4" s="5">
-        <v>33</v>
-      </c>
-      <c r="S4" s="5">
-        <v>34</v>
-      </c>
-      <c r="T4" s="5">
-        <v>16</v>
-      </c>
-      <c r="U4" s="5">
-        <v>30</v>
-      </c>
-      <c r="V4" s="5">
-        <v>37</v>
-      </c>
-      <c r="W4" s="5">
-        <v>27</v>
-      </c>
-      <c r="X4" s="5">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="5">
+      <c r="AB4">
         <v>55</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4">
         <v>46</v>
       </c>
-      <c r="AD4" s="5">
-        <v>34</v>
+      <c r="AD4">
+        <v>21</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>265</v>
@@ -12962,7 +12965,7 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C68" s="7">
         <f>SUM(C2:C67)</f>
-        <v>31269</v>
+        <v>31256</v>
       </c>
     </row>
   </sheetData>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E17C5-8787-4BD0-AC54-28DF87390A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB221A-3147-4974-B2EB-3EF46F8CFDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,101 +1545,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>31</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
   <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
@@ -4977,11 +4977,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
   <dimension ref="A1:EW68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:AD4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB221A-3147-4974-B2EB-3EF46F8CFDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A971A30-5A81-42DD-A613-6739438F861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:E8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,123 +1644,123 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>31</v>
       </c>
     </row>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A971A30-5A81-42DD-A613-6739438F861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCE659-4FEA-4CE3-A8BC-F38103F99396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:C21"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,145 +1765,145 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>7</v>
       </c>
     </row>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667BBD3D-301F-41ED-AFCF-10028EC42428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD5380-5F6D-4FFD-8647-F8E0FA899492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -912,6 +912,7 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1367,9 +1368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A35:C39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,739 +1381,739 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>22</v>
       </c>
     </row>
@@ -4823,11 +4824,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
   <dimension ref="A1:EW68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,119 +5792,119 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>1288</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>54</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>34</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>51</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>49</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>31</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>27</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>89</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>26</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>23</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>36</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>35</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>16</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>33</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>45</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>41</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>13</v>
+      </c>
+      <c r="U5">
+        <v>32</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>29</v>
+      </c>
+      <c r="X5">
         <v>35</v>
       </c>
-      <c r="T5" s="4">
-        <v>28</v>
-      </c>
-      <c r="U5" s="4">
-        <v>32</v>
-      </c>
-      <c r="V5" s="4">
-        <v>22</v>
-      </c>
-      <c r="W5" s="4">
+      <c r="Y5">
+        <v>41</v>
+      </c>
+      <c r="Z5">
+        <v>30</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>18</v>
+      </c>
+      <c r="AC5">
+        <v>65</v>
+      </c>
+      <c r="AD5">
+        <v>23</v>
+      </c>
+      <c r="AE5">
+        <v>31</v>
+      </c>
+      <c r="AF5">
+        <v>40</v>
+      </c>
+      <c r="AG5">
+        <v>16</v>
+      </c>
+      <c r="AH5">
+        <v>54</v>
+      </c>
+      <c r="AI5">
+        <v>42</v>
+      </c>
+      <c r="AJ5">
+        <v>56</v>
+      </c>
+      <c r="AK5">
         <v>29</v>
       </c>
-      <c r="X5" s="4">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>65</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>39</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>17</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>54</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>42</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>56</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>29</v>
-      </c>
-      <c r="AL5" s="4">
+      <c r="AL5">
         <v>34</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5">
         <v>13</v>
       </c>
       <c r="AN5" s="4" t="s">
@@ -5953,113 +5954,113 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>959</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>46</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>37</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>29</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>49</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>26</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>29</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>22</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>32</v>
       </c>
-      <c r="O6" s="4">
-        <v>31</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>22</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>22</v>
+      </c>
+      <c r="V6">
+        <v>21</v>
+      </c>
+      <c r="W6">
+        <v>20</v>
+      </c>
+      <c r="X6">
+        <v>23</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>25</v>
+      </c>
+      <c r="AA6">
+        <v>22</v>
+      </c>
+      <c r="AB6">
         <v>19</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AC6">
+        <v>19</v>
+      </c>
+      <c r="AD6">
+        <v>26</v>
+      </c>
+      <c r="AE6">
+        <v>68</v>
+      </c>
+      <c r="AF6">
         <v>29</v>
       </c>
-      <c r="R6" s="4">
-        <v>23</v>
-      </c>
-      <c r="S6" s="4">
-        <v>22</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="AG6">
         <v>20</v>
       </c>
-      <c r="U6" s="4">
-        <v>22</v>
-      </c>
-      <c r="V6" s="4">
-        <v>21</v>
-      </c>
-      <c r="W6" s="4">
-        <v>20</v>
-      </c>
-      <c r="X6" s="4">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="AH6">
+        <v>30</v>
+      </c>
+      <c r="AI6">
+        <v>52</v>
+      </c>
+      <c r="AJ6">
         <v>29</v>
       </c>
-      <c r="Z6" s="4">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>22</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>19</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>26</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>69</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>28</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>20</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>30</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>52</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>29</v>
-      </c>
-      <c r="AK6" s="4">
+      <c r="AK6">
         <v>12</v>
       </c>
       <c r="AL6" s="4" t="s">
@@ -6115,7 +6116,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
@@ -6235,7 +6236,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
@@ -6355,7 +6356,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
@@ -6475,7 +6476,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">
@@ -6543,19 +6544,19 @@
         <v>42</v>
       </c>
       <c r="X10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y10">
         <v>23</v>
       </c>
       <c r="Z10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC10">
         <v>25</v>
@@ -6595,7 +6596,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4">
@@ -6654,10 +6655,10 @@
         <v>29</v>
       </c>
       <c r="U11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W11">
         <v>26</v>
@@ -6715,12 +6716,12 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D12">
         <v>53</v>
@@ -6732,10 +6733,10 @@
         <v>28</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>38</v>
@@ -6786,7 +6787,7 @@
         <v>29</v>
       </c>
       <c r="Y12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z12" t="s">
         <v>228</v>
@@ -6835,7 +6836,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4">
@@ -6873,10 +6874,10 @@
         <v>36</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13">
         <v>25</v>
@@ -6955,12 +6956,12 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D14">
         <v>54</v>
@@ -6975,10 +6976,10 @@
         <v>43</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J14">
         <v>40</v>
@@ -6996,7 +6997,7 @@
         <v>47</v>
       </c>
       <c r="O14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14">
         <v>14</v>
@@ -7075,18 +7076,18 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
         <v>18</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
       </c>
       <c r="F15">
         <v>17</v>
@@ -7119,10 +7120,10 @@
         <v>16</v>
       </c>
       <c r="P15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R15">
         <v>19</v>
@@ -7185,7 +7186,7 @@
         <v>33</v>
       </c>
       <c r="AL15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM15">
         <v>23</v>
@@ -7195,7 +7196,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4">
@@ -7315,12 +7316,12 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D17">
         <v>11</v>
@@ -7329,10 +7330,10 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>19</v>
@@ -7341,16 +7342,16 @@
         <v>19</v>
       </c>
       <c r="J17">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17">
         <v>18</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>36</v>
@@ -7435,12 +7436,12 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="D18">
         <v>22</v>
@@ -7472,24 +7473,12 @@
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18">
-        <v>17</v>
-      </c>
-      <c r="O18">
-        <v>8</v>
-      </c>
-      <c r="P18">
-        <v>30</v>
-      </c>
-      <c r="Q18">
-        <v>16</v>
-      </c>
-      <c r="R18">
-        <v>24</v>
-      </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
       <c r="T18" t="s">
         <v>228</v>
       </c>
@@ -7555,12 +7544,12 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D19">
         <v>22</v>
@@ -7641,7 +7630,7 @@
         <v>14</v>
       </c>
       <c r="AD19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19">
         <v>28</v>
@@ -7680,10 +7669,10 @@
         <v>30</v>
       </c>
       <c r="AQ19">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AR19">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AS19">
         <v>17</v>
@@ -7693,12 +7682,12 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>2526</v>
+        <v>2461</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -7707,25 +7696,25 @@
         <v>12</v>
       </c>
       <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
         <v>9</v>
       </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>11</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
       <c r="L20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -7734,7 +7723,7 @@
         <v>7</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -7752,19 +7741,19 @@
         <v>15</v>
       </c>
       <c r="U20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z20">
         <v>6</v>
@@ -7776,7 +7765,7 @@
         <v>22</v>
       </c>
       <c r="AC20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD20">
         <v>14</v>
@@ -7788,10 +7777,10 @@
         <v>11</v>
       </c>
       <c r="AG20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI20">
         <v>11</v>
@@ -7800,115 +7789,115 @@
         <v>22</v>
       </c>
       <c r="AK20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL20">
         <v>28</v>
       </c>
       <c r="AM20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN20">
         <v>40</v>
       </c>
       <c r="AO20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT20">
         <v>5</v>
       </c>
       <c r="AU20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20">
         <v>23</v>
       </c>
       <c r="BB20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC20">
+        <v>9</v>
+      </c>
+      <c r="BD20">
+        <v>6</v>
+      </c>
+      <c r="BE20">
+        <v>7</v>
+      </c>
+      <c r="BF20">
+        <v>23</v>
+      </c>
+      <c r="BG20">
+        <v>13</v>
+      </c>
+      <c r="BH20">
         <v>11</v>
       </c>
-      <c r="BD20">
-        <v>7</v>
-      </c>
-      <c r="BE20">
-        <v>9</v>
-      </c>
-      <c r="BF20">
-        <v>24</v>
-      </c>
-      <c r="BG20">
-        <v>14</v>
-      </c>
-      <c r="BH20">
+      <c r="BI20">
+        <v>11</v>
+      </c>
+      <c r="BJ20">
+        <v>17</v>
+      </c>
+      <c r="BK20">
         <v>12</v>
       </c>
-      <c r="BI20">
+      <c r="BL20">
+        <v>8</v>
+      </c>
+      <c r="BM20">
         <v>12</v>
       </c>
-      <c r="BJ20">
-        <v>18</v>
-      </c>
-      <c r="BK20">
-        <v>14</v>
-      </c>
-      <c r="BL20">
-        <v>9</v>
-      </c>
-      <c r="BM20">
+      <c r="BN20">
+        <v>11</v>
+      </c>
+      <c r="BO20">
+        <v>10</v>
+      </c>
+      <c r="BP20">
         <v>13</v>
-      </c>
-      <c r="BN20">
-        <v>12</v>
-      </c>
-      <c r="BO20">
-        <v>11</v>
-      </c>
-      <c r="BP20">
-        <v>14</v>
       </c>
       <c r="BQ20">
         <v>20</v>
       </c>
       <c r="BR20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS20">
+        <v>35</v>
+      </c>
+      <c r="BT20">
         <v>36</v>
       </c>
-      <c r="BT20">
-        <v>37</v>
-      </c>
       <c r="BU20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV20">
         <v>24</v>
@@ -7923,13 +7912,13 @@
         <v>23</v>
       </c>
       <c r="BZ20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CA20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CC20">
         <v>72</v>
@@ -7938,22 +7927,22 @@
         <v>13</v>
       </c>
       <c r="CE20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CF20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CG20">
         <v>8</v>
       </c>
       <c r="CH20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CI20">
+        <v>12</v>
+      </c>
+      <c r="CJ20">
         <v>13</v>
-      </c>
-      <c r="CJ20">
-        <v>14</v>
       </c>
       <c r="CK20">
         <v>17</v>
@@ -7962,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="CM20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CN20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CO20">
         <v>17</v>
@@ -7974,7 +7963,7 @@
         <v>16</v>
       </c>
       <c r="CQ20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CR20">
         <v>5</v>
@@ -8004,7 +7993,7 @@
         <v>8</v>
       </c>
       <c r="DA20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DB20">
         <v>22</v>
@@ -8022,7 +8011,7 @@
         <v>43</v>
       </c>
       <c r="DG20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DH20">
         <v>31</v>
@@ -8118,13 +8107,13 @@
         <v>24</v>
       </c>
       <c r="EM20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="EN20">
         <v>10</v>
       </c>
       <c r="EO20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EP20">
         <v>12</v>
@@ -8155,7 +8144,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4">
@@ -12811,7 +12800,7 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <f>SUM(C2:C67)</f>
-        <v>31256</v>
+        <v>31088</v>
       </c>
     </row>
   </sheetData>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD5380-5F6D-4FFD-8647-F8E0FA899492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802DE777-D78B-494E-8883-668DACFE3188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="225">
   <si>
     <t>Book</t>
   </si>
@@ -327,18 +327,6 @@
   </si>
   <si>
     <t>NumVerses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40* </t>
   </si>
   <si>
     <t xml:space="preserve">TotalVerses </t>
@@ -1003,92 +991,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> number matches this website: https://www.biblebelievers.com/believers-org/kjv-stats.html?_e_pi_=7%2CPAGE_ID10%2C1665113068</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242EF3D9-AF98-4768-AC7B-662D28C8172B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="13344525"/>
-          <a:ext cx="3314700" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" u="sng"/>
-            <a:t>Notes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>I</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> am unsure of the exact accuracy of this data as it came from a Catholic website.  Their Bible has extra books and verses compared to the KJV.  I have not checked all of these numbers manually.  Their total verse count is 167 verses over </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4825,10 +4727,10 @@
   <dimension ref="A1:EW68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,464 +4751,464 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DM1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DP1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DM1" s="3" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DY1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DZ1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="EA1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="DY1" s="3" t="s">
+      <c r="EC1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="DZ1" s="3" t="s">
+      <c r="ED1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="ES1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="ET1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="EU1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="EV1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="EW1" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:153" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4">
@@ -5468,7 +5370,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4">
@@ -5596,41 +5498,41 @@
         <v>38</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -5719,80 +5621,80 @@
         <v>21</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
@@ -5908,53 +5810,53 @@
         <v>13</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
@@ -6064,59 +5966,59 @@
         <v>12</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
@@ -6196,47 +6098,47 @@
         <v>33</v>
       </c>
       <c r="AB7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
@@ -6307,56 +6209,56 @@
         <v>25</v>
       </c>
       <c r="Y8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Z8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
@@ -6376,107 +6278,107 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="V9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="X9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Z9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">
@@ -6577,26 +6479,26 @@
         <v>13</v>
       </c>
       <c r="AI10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4">
@@ -6676,47 +6578,47 @@
         <v>25</v>
       </c>
       <c r="AB11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4">
@@ -6790,53 +6692,53 @@
         <v>53</v>
       </c>
       <c r="Z12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4">
@@ -6919,44 +6821,44 @@
         <v>30</v>
       </c>
       <c r="AC13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4">
@@ -7051,32 +6953,32 @@
         <v>30</v>
       </c>
       <c r="AG14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4">
@@ -7196,7 +7098,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4">
@@ -7234,89 +7136,89 @@
         <v>44</v>
       </c>
       <c r="N16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="V16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="X16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Z16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4">
@@ -7363,80 +7265,80 @@
         <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="V17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="X17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Z17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4">
@@ -7480,71 +7382,71 @@
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="V18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="X18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Z18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AI18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
@@ -7682,7 +7584,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4">
@@ -8144,7 +8046,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4">
@@ -8249,7 +8151,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4">
@@ -8266,10 +8168,10 @@
         <v>22</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -8292,63 +8194,25 @@
       <c r="O22">
         <v>14</v>
       </c>
-      <c r="P22" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>228</v>
-      </c>
-      <c r="R22" t="s">
-        <v>228</v>
-      </c>
-      <c r="S22" t="s">
-        <v>228</v>
-      </c>
-      <c r="T22" t="s">
-        <v>228</v>
-      </c>
-      <c r="U22" t="s">
-        <v>228</v>
-      </c>
-      <c r="V22" t="s">
-        <v>228</v>
-      </c>
-      <c r="W22" t="s">
-        <v>228</v>
-      </c>
-      <c r="X22" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>228</v>
-      </c>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
     </row>
     <row r="23" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -8377,83 +8241,37 @@
         <v>16</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23">
         <v>14</v>
       </c>
-      <c r="L23" t="s">
-        <v>228</v>
-      </c>
-      <c r="M23" t="s">
-        <v>228</v>
-      </c>
-      <c r="N23" t="s">
-        <v>228</v>
-      </c>
-      <c r="O23" t="s">
-        <v>228</v>
-      </c>
-      <c r="P23" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>228</v>
-      </c>
-      <c r="R23" t="s">
-        <v>228</v>
-      </c>
-      <c r="S23" t="s">
-        <v>228</v>
-      </c>
-      <c r="T23" t="s">
-        <v>228</v>
-      </c>
-      <c r="U23" t="s">
-        <v>228</v>
-      </c>
-      <c r="V23" t="s">
-        <v>228</v>
-      </c>
-      <c r="W23" t="s">
-        <v>228</v>
-      </c>
-      <c r="X23" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>228</v>
-      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
     </row>
     <row r="24" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -8464,7 +8282,7 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D24">
         <v>31</v>
@@ -8488,10 +8306,10 @@
         <v>25</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <v>34</v>
@@ -8656,7 +8474,7 @@
         <v>19</v>
       </c>
       <c r="BO24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP24">
         <v>25</v>
@@ -8698,10 +8516,10 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25">
         <v>25</v>
@@ -8832,48 +8650,20 @@
       <c r="BC25">
         <v>34</v>
       </c>
-      <c r="BD25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>228</v>
-      </c>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
     </row>
     <row r="26" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -8901,189 +8691,67 @@
       <c r="H26">
         <v>22</v>
       </c>
-      <c r="I26" t="s">
-        <v>228</v>
-      </c>
-      <c r="J26" t="s">
-        <v>228</v>
-      </c>
-      <c r="K26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" t="s">
-        <v>228</v>
-      </c>
-      <c r="M26" t="s">
-        <v>228</v>
-      </c>
-      <c r="N26" t="s">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s">
-        <v>228</v>
-      </c>
-      <c r="P26" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>228</v>
-      </c>
-      <c r="R26" t="s">
-        <v>228</v>
-      </c>
-      <c r="S26" t="s">
-        <v>228</v>
-      </c>
-      <c r="T26" t="s">
-        <v>228</v>
-      </c>
-      <c r="U26" t="s">
-        <v>228</v>
-      </c>
-      <c r="V26" t="s">
-        <v>228</v>
-      </c>
-      <c r="W26" t="s">
-        <v>228</v>
-      </c>
-      <c r="X26" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>228</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>228</v>
-      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -9154,10 +8822,10 @@
         <v>14</v>
       </c>
       <c r="W27">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X27">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y27">
         <v>31</v>
@@ -9240,60 +8908,24 @@
       <c r="AY27">
         <v>35</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>228</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>228</v>
-      </c>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
     </row>
     <row r="28" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -9304,7 +8936,7 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>357</v>
       </c>
       <c r="D28">
         <v>21</v>
@@ -9313,16 +8945,16 @@
         <v>49</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J28">
         <v>28</v>
@@ -9342,168 +8974,60 @@
       <c r="O28">
         <v>13</v>
       </c>
-      <c r="P28">
-        <v>64</v>
-      </c>
-      <c r="Q28">
-        <v>42</v>
-      </c>
-      <c r="R28" t="s">
-        <v>228</v>
-      </c>
-      <c r="S28" t="s">
-        <v>228</v>
-      </c>
-      <c r="T28" t="s">
-        <v>228</v>
-      </c>
-      <c r="U28" t="s">
-        <v>228</v>
-      </c>
-      <c r="V28" t="s">
-        <v>228</v>
-      </c>
-      <c r="W28" t="s">
-        <v>228</v>
-      </c>
-      <c r="X28" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP28" t="s">
-        <v>228</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>228</v>
-      </c>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
     </row>
     <row r="29" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -9517,10 +9041,10 @@
         <v>197</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -9547,16 +9071,16 @@
         <v>15</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29"/>
       <c r="S29"/>
@@ -9626,43 +9150,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="4">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4">
         <v>21</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:153" x14ac:dyDescent="0.25">
@@ -9703,21 +9194,6 @@
       <c r="L31" s="4">
         <v>15</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -9733,45 +9209,6 @@
       <c r="D32" s="4">
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -9785,46 +9222,16 @@
         <v>48</v>
       </c>
       <c r="D33" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4">
         <v>10</v>
       </c>
       <c r="G33" s="4">
         <v>11</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -9848,37 +9255,16 @@
         <v>12</v>
       </c>
       <c r="G34" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="4">
         <v>16</v>
       </c>
       <c r="J34" s="4">
         <v>20</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -9893,46 +9279,13 @@
         <v>47</v>
       </c>
       <c r="D35" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="4">
         <v>19</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -9955,39 +9308,6 @@
       <c r="F36" s="4">
         <v>19</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -10009,39 +9329,6 @@
       <c r="F37" s="4">
         <v>20</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -10060,42 +9347,6 @@
       <c r="E38" s="4">
         <v>23</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -10108,46 +9359,46 @@
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>23</v>
+      </c>
+      <c r="L39">
         <v>17</v>
       </c>
-      <c r="E39" s="4">
+      <c r="M39">
+        <v>12</v>
+      </c>
+      <c r="N39">
         <v>17</v>
       </c>
-      <c r="F39" s="4">
-        <v>10</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="O39">
         <v>14</v>
       </c>
-      <c r="H39" s="4">
-        <v>11</v>
-      </c>
-      <c r="I39" s="4">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4">
-        <v>14</v>
-      </c>
-      <c r="K39" s="4">
-        <v>23</v>
-      </c>
-      <c r="L39" s="4">
-        <v>17</v>
-      </c>
-      <c r="M39" s="4">
-        <v>12</v>
-      </c>
-      <c r="N39" s="4">
-        <v>17</v>
-      </c>
-      <c r="O39" s="4">
-        <v>14</v>
-      </c>
-      <c r="P39" s="4">
+      <c r="P39">
         <v>9</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39">
         <v>21</v>
       </c>
     </row>
@@ -10169,40 +9420,10 @@
         <v>17</v>
       </c>
       <c r="F40" s="4">
-        <v>24</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>228</v>
+        <v>18</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -10310,7 +9531,7 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="D42">
         <v>45</v>
@@ -10357,45 +9578,21 @@
       <c r="R42">
         <v>47</v>
       </c>
-      <c r="S42" t="s">
-        <v>73</v>
-      </c>
-      <c r="T42" t="s">
-        <v>228</v>
-      </c>
-      <c r="U42" t="s">
-        <v>228</v>
-      </c>
-      <c r="V42" t="s">
-        <v>228</v>
-      </c>
-      <c r="W42" t="s">
-        <v>228</v>
-      </c>
-      <c r="X42" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>228</v>
-      </c>
+      <c r="S42">
+        <v>20</v>
+      </c>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -10480,18 +9677,10 @@
       <c r="AA43">
         <v>53</v>
       </c>
-      <c r="AB43" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>228</v>
-      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -10502,7 +9691,7 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
-        <v>767</v>
+        <v>879</v>
       </c>
       <c r="D44">
         <v>51</v>
@@ -10522,11 +9711,11 @@
       <c r="I44">
         <v>71</v>
       </c>
-      <c r="J44" t="s">
-        <v>74</v>
-      </c>
-      <c r="K44" t="s">
-        <v>75</v>
+      <c r="J44">
+        <v>53</v>
+      </c>
+      <c r="K44">
+        <v>59</v>
       </c>
       <c r="L44">
         <v>41</v>
@@ -10567,27 +9756,13 @@
       <c r="X44">
         <v>25</v>
       </c>
-      <c r="Y44" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>228</v>
-      </c>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -10598,7 +9773,7 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
-        <v>966</v>
+        <v>1007</v>
       </c>
       <c r="D45">
         <v>26</v>
@@ -10654,8 +9829,8 @@
       <c r="U45">
         <v>28</v>
       </c>
-      <c r="V45" t="s">
-        <v>76</v>
+      <c r="V45">
+        <v>41</v>
       </c>
       <c r="W45">
         <v>38</v>
@@ -10744,42 +9919,18 @@
       <c r="S46">
         <v>27</v>
       </c>
-      <c r="T46" t="s">
-        <v>228</v>
-      </c>
-      <c r="U46" t="s">
-        <v>228</v>
-      </c>
-      <c r="V46" t="s">
-        <v>228</v>
-      </c>
-      <c r="W46" t="s">
-        <v>228</v>
-      </c>
-      <c r="X46" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>228</v>
-      </c>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -10840,42 +9991,18 @@
       <c r="S47">
         <v>24</v>
       </c>
-      <c r="T47" t="s">
-        <v>228</v>
-      </c>
-      <c r="U47" t="s">
-        <v>228</v>
-      </c>
-      <c r="V47" t="s">
-        <v>228</v>
-      </c>
-      <c r="W47" t="s">
-        <v>228</v>
-      </c>
-      <c r="X47" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>228</v>
-      </c>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -10886,7 +10013,7 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -10925,53 +10052,23 @@
         <v>21</v>
       </c>
       <c r="P48">
-        <v>13</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>228</v>
-      </c>
-      <c r="R48" t="s">
-        <v>228</v>
-      </c>
-      <c r="S48" t="s">
-        <v>228</v>
-      </c>
-      <c r="T48" t="s">
-        <v>228</v>
-      </c>
-      <c r="U48" t="s">
-        <v>228</v>
-      </c>
-      <c r="V48" t="s">
-        <v>228</v>
-      </c>
-      <c r="W48" t="s">
-        <v>228</v>
-      </c>
-      <c r="X48" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>228</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -11002,72 +10099,28 @@
       <c r="I49">
         <v>18</v>
       </c>
-      <c r="J49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K49" t="s">
-        <v>228</v>
-      </c>
-      <c r="L49" t="s">
-        <v>228</v>
-      </c>
-      <c r="M49" t="s">
-        <v>228</v>
-      </c>
-      <c r="N49" t="s">
-        <v>228</v>
-      </c>
-      <c r="O49" t="s">
-        <v>228</v>
-      </c>
-      <c r="P49" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>228</v>
-      </c>
-      <c r="R49" t="s">
-        <v>228</v>
-      </c>
-      <c r="S49" t="s">
-        <v>228</v>
-      </c>
-      <c r="T49" t="s">
-        <v>228</v>
-      </c>
-      <c r="U49" t="s">
-        <v>228</v>
-      </c>
-      <c r="V49" t="s">
-        <v>228</v>
-      </c>
-      <c r="W49" t="s">
-        <v>228</v>
-      </c>
-      <c r="X49" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>228</v>
-      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -11078,92 +10131,36 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="D50">
-        <v>23</v>
-      </c>
-      <c r="E50">
-        <v>22</v>
-      </c>
-      <c r="F50">
-        <v>21</v>
-      </c>
-      <c r="G50">
-        <v>32</v>
-      </c>
-      <c r="H50">
-        <v>33</v>
-      </c>
-      <c r="I50">
-        <v>24</v>
-      </c>
-      <c r="J50" t="s">
-        <v>228</v>
-      </c>
-      <c r="K50" t="s">
-        <v>228</v>
-      </c>
-      <c r="L50" t="s">
-        <v>228</v>
-      </c>
-      <c r="M50" t="s">
-        <v>228</v>
-      </c>
-      <c r="N50" t="s">
-        <v>228</v>
-      </c>
-      <c r="O50" t="s">
-        <v>228</v>
-      </c>
-      <c r="P50" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>228</v>
-      </c>
-      <c r="R50" t="s">
-        <v>228</v>
-      </c>
-      <c r="S50" t="s">
-        <v>228</v>
-      </c>
-      <c r="T50" t="s">
-        <v>228</v>
-      </c>
-      <c r="U50" t="s">
-        <v>228</v>
-      </c>
-      <c r="V50" t="s">
-        <v>228</v>
-      </c>
-      <c r="W50" t="s">
-        <v>228</v>
-      </c>
-      <c r="X50" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -11174,92 +10171,36 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="D51">
-        <v>30</v>
-      </c>
-      <c r="E51">
-        <v>30</v>
-      </c>
-      <c r="F51">
-        <v>21</v>
-      </c>
-      <c r="G51">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s">
-        <v>228</v>
-      </c>
-      <c r="I51" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51" t="s">
-        <v>228</v>
-      </c>
-      <c r="K51" t="s">
-        <v>228</v>
-      </c>
-      <c r="L51" t="s">
-        <v>228</v>
-      </c>
-      <c r="M51" t="s">
-        <v>228</v>
-      </c>
-      <c r="N51" t="s">
-        <v>228</v>
-      </c>
-      <c r="O51" t="s">
-        <v>228</v>
-      </c>
-      <c r="P51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>228</v>
-      </c>
-      <c r="R51" t="s">
-        <v>228</v>
-      </c>
-      <c r="S51" t="s">
-        <v>228</v>
-      </c>
-      <c r="T51" t="s">
-        <v>228</v>
-      </c>
-      <c r="U51" t="s">
-        <v>228</v>
-      </c>
-      <c r="V51" t="s">
-        <v>228</v>
-      </c>
-      <c r="W51" t="s">
-        <v>228</v>
-      </c>
-      <c r="X51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -11270,92 +10211,36 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="D52">
-        <v>29</v>
-      </c>
-      <c r="E52">
-        <v>23</v>
-      </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
-      <c r="G52">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" t="s">
-        <v>228</v>
-      </c>
-      <c r="J52" t="s">
-        <v>228</v>
-      </c>
-      <c r="K52" t="s">
-        <v>228</v>
-      </c>
-      <c r="L52" t="s">
-        <v>228</v>
-      </c>
-      <c r="M52" t="s">
-        <v>228</v>
-      </c>
-      <c r="N52" t="s">
-        <v>228</v>
-      </c>
-      <c r="O52" t="s">
-        <v>228</v>
-      </c>
-      <c r="P52" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>228</v>
-      </c>
-      <c r="R52" t="s">
-        <v>228</v>
-      </c>
-      <c r="S52" t="s">
-        <v>228</v>
-      </c>
-      <c r="T52" t="s">
-        <v>228</v>
-      </c>
-      <c r="U52" t="s">
-        <v>228</v>
-      </c>
-      <c r="V52" t="s">
-        <v>228</v>
-      </c>
-      <c r="W52" t="s">
-        <v>228</v>
-      </c>
-      <c r="X52" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -11366,92 +10251,36 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
-      </c>
-      <c r="E53">
-        <v>20</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
-      </c>
-      <c r="G53">
-        <v>18</v>
-      </c>
-      <c r="H53">
-        <v>28</v>
-      </c>
-      <c r="I53" t="s">
-        <v>228</v>
-      </c>
-      <c r="J53" t="s">
-        <v>228</v>
-      </c>
-      <c r="K53" t="s">
-        <v>228</v>
-      </c>
-      <c r="L53" t="s">
-        <v>228</v>
-      </c>
-      <c r="M53" t="s">
-        <v>228</v>
-      </c>
-      <c r="N53" t="s">
-        <v>228</v>
-      </c>
-      <c r="O53" t="s">
-        <v>228</v>
-      </c>
-      <c r="P53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>228</v>
-      </c>
-      <c r="R53" t="s">
-        <v>228</v>
-      </c>
-      <c r="S53" t="s">
-        <v>228</v>
-      </c>
-      <c r="T53" t="s">
-        <v>228</v>
-      </c>
-      <c r="U53" t="s">
-        <v>228</v>
-      </c>
-      <c r="V53" t="s">
-        <v>228</v>
-      </c>
-      <c r="W53" t="s">
-        <v>228</v>
-      </c>
-      <c r="X53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -11462,92 +10291,36 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D54">
-        <v>12</v>
-      </c>
-      <c r="E54">
-        <v>17</v>
-      </c>
-      <c r="F54">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" t="s">
-        <v>228</v>
-      </c>
-      <c r="I54" t="s">
-        <v>228</v>
-      </c>
-      <c r="J54" t="s">
-        <v>228</v>
-      </c>
-      <c r="K54" t="s">
-        <v>228</v>
-      </c>
-      <c r="L54" t="s">
-        <v>228</v>
-      </c>
-      <c r="M54" t="s">
-        <v>228</v>
-      </c>
-      <c r="N54" t="s">
-        <v>228</v>
-      </c>
-      <c r="O54" t="s">
-        <v>228</v>
-      </c>
-      <c r="P54" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>228</v>
-      </c>
-      <c r="R54" t="s">
-        <v>228</v>
-      </c>
-      <c r="S54" t="s">
-        <v>228</v>
-      </c>
-      <c r="T54" t="s">
-        <v>228</v>
-      </c>
-      <c r="U54" t="s">
-        <v>228</v>
-      </c>
-      <c r="V54" t="s">
-        <v>228</v>
-      </c>
-      <c r="W54" t="s">
-        <v>228</v>
-      </c>
-      <c r="X54" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -11558,92 +10331,36 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="E55">
-        <v>15</v>
-      </c>
-      <c r="F55">
-        <v>16</v>
-      </c>
-      <c r="G55">
-        <v>16</v>
-      </c>
-      <c r="H55">
-        <v>25</v>
-      </c>
-      <c r="I55">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>228</v>
-      </c>
-      <c r="K55" t="s">
-        <v>228</v>
-      </c>
-      <c r="L55" t="s">
-        <v>228</v>
-      </c>
-      <c r="M55" t="s">
-        <v>228</v>
-      </c>
-      <c r="N55" t="s">
-        <v>228</v>
-      </c>
-      <c r="O55" t="s">
-        <v>228</v>
-      </c>
-      <c r="P55" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>228</v>
-      </c>
-      <c r="R55" t="s">
-        <v>228</v>
-      </c>
-      <c r="S55" t="s">
-        <v>228</v>
-      </c>
-      <c r="T55" t="s">
-        <v>228</v>
-      </c>
-      <c r="U55" t="s">
-        <v>228</v>
-      </c>
-      <c r="V55" t="s">
-        <v>228</v>
-      </c>
-      <c r="W55" t="s">
-        <v>228</v>
-      </c>
-      <c r="X55" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -11654,92 +10371,36 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="D56">
-        <v>18</v>
-      </c>
-      <c r="E56">
-        <v>26</v>
-      </c>
-      <c r="F56">
-        <v>17</v>
-      </c>
-      <c r="G56">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s">
-        <v>228</v>
-      </c>
-      <c r="I56" t="s">
-        <v>228</v>
-      </c>
-      <c r="J56" t="s">
-        <v>228</v>
-      </c>
-      <c r="K56" t="s">
-        <v>228</v>
-      </c>
-      <c r="L56" t="s">
-        <v>228</v>
-      </c>
-      <c r="M56" t="s">
-        <v>228</v>
-      </c>
-      <c r="N56" t="s">
-        <v>228</v>
-      </c>
-      <c r="O56" t="s">
-        <v>228</v>
-      </c>
-      <c r="P56" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>228</v>
-      </c>
-      <c r="R56" t="s">
-        <v>228</v>
-      </c>
-      <c r="S56" t="s">
-        <v>228</v>
-      </c>
-      <c r="T56" t="s">
-        <v>228</v>
-      </c>
-      <c r="U56" t="s">
-        <v>228</v>
-      </c>
-      <c r="V56" t="s">
-        <v>228</v>
-      </c>
-      <c r="W56" t="s">
-        <v>228</v>
-      </c>
-      <c r="X56" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -11750,92 +10411,36 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D57">
-        <v>16</v>
-      </c>
-      <c r="E57">
-        <v>15</v>
-      </c>
-      <c r="F57">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>228</v>
-      </c>
-      <c r="H57" t="s">
-        <v>228</v>
-      </c>
-      <c r="I57" t="s">
-        <v>228</v>
-      </c>
-      <c r="J57" t="s">
-        <v>228</v>
-      </c>
-      <c r="K57" t="s">
-        <v>228</v>
-      </c>
-      <c r="L57" t="s">
-        <v>228</v>
-      </c>
-      <c r="M57" t="s">
-        <v>228</v>
-      </c>
-      <c r="N57" t="s">
-        <v>228</v>
-      </c>
-      <c r="O57" t="s">
-        <v>228</v>
-      </c>
-      <c r="P57" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>228</v>
-      </c>
-      <c r="R57" t="s">
-        <v>228</v>
-      </c>
-      <c r="S57" t="s">
-        <v>228</v>
-      </c>
-      <c r="T57" t="s">
-        <v>228</v>
-      </c>
-      <c r="U57" t="s">
-        <v>228</v>
-      </c>
-      <c r="V57" t="s">
-        <v>228</v>
-      </c>
-      <c r="W57" t="s">
-        <v>228</v>
-      </c>
-      <c r="X57" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -11846,92 +10451,36 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D58">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G58" t="s">
-        <v>228</v>
-      </c>
-      <c r="H58" t="s">
-        <v>228</v>
-      </c>
-      <c r="I58" t="s">
-        <v>228</v>
-      </c>
-      <c r="J58" t="s">
-        <v>228</v>
-      </c>
-      <c r="K58" t="s">
-        <v>228</v>
-      </c>
-      <c r="L58" t="s">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s">
-        <v>228</v>
-      </c>
-      <c r="N58" t="s">
-        <v>228</v>
-      </c>
-      <c r="O58" t="s">
-        <v>228</v>
-      </c>
-      <c r="P58" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>228</v>
-      </c>
-      <c r="R58" t="s">
-        <v>228</v>
-      </c>
-      <c r="S58" t="s">
-        <v>228</v>
-      </c>
-      <c r="T58" t="s">
-        <v>228</v>
-      </c>
-      <c r="U58" t="s">
-        <v>228</v>
-      </c>
-      <c r="V58" t="s">
-        <v>228</v>
-      </c>
-      <c r="W58" t="s">
-        <v>228</v>
-      </c>
-      <c r="X58" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -11942,92 +10491,36 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="D59">
-        <v>14</v>
-      </c>
-      <c r="E59">
-        <v>18</v>
-      </c>
-      <c r="F59">
-        <v>19</v>
-      </c>
-      <c r="G59">
-        <v>16</v>
-      </c>
-      <c r="H59">
-        <v>14</v>
-      </c>
-      <c r="I59">
-        <v>20</v>
-      </c>
-      <c r="J59">
-        <v>28</v>
-      </c>
-      <c r="K59">
-        <v>13</v>
-      </c>
-      <c r="L59">
-        <v>28</v>
-      </c>
-      <c r="M59">
-        <v>39</v>
-      </c>
-      <c r="N59">
-        <v>40</v>
-      </c>
-      <c r="O59">
-        <v>29</v>
-      </c>
-      <c r="P59">
-        <v>25</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>228</v>
-      </c>
-      <c r="R59" t="s">
-        <v>228</v>
-      </c>
-      <c r="S59" t="s">
-        <v>228</v>
-      </c>
-      <c r="T59" t="s">
-        <v>228</v>
-      </c>
-      <c r="U59" t="s">
-        <v>228</v>
-      </c>
-      <c r="V59" t="s">
-        <v>228</v>
-      </c>
-      <c r="W59" t="s">
-        <v>228</v>
-      </c>
-      <c r="X59" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -12038,92 +10531,36 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="D60">
-        <v>27</v>
-      </c>
-      <c r="E60">
-        <v>26</v>
-      </c>
-      <c r="F60">
-        <v>18</v>
-      </c>
-      <c r="G60">
-        <v>17</v>
-      </c>
-      <c r="H60">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s">
-        <v>228</v>
-      </c>
-      <c r="J60" t="s">
-        <v>228</v>
-      </c>
-      <c r="K60" t="s">
-        <v>228</v>
-      </c>
-      <c r="L60" t="s">
-        <v>228</v>
-      </c>
-      <c r="M60" t="s">
-        <v>228</v>
-      </c>
-      <c r="N60" t="s">
-        <v>228</v>
-      </c>
-      <c r="O60" t="s">
-        <v>228</v>
-      </c>
-      <c r="P60" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>228</v>
-      </c>
-      <c r="R60" t="s">
-        <v>228</v>
-      </c>
-      <c r="S60" t="s">
-        <v>228</v>
-      </c>
-      <c r="T60" t="s">
-        <v>228</v>
-      </c>
-      <c r="U60" t="s">
-        <v>228</v>
-      </c>
-      <c r="V60" t="s">
-        <v>228</v>
-      </c>
-      <c r="W60" t="s">
-        <v>228</v>
-      </c>
-      <c r="X60" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -12134,92 +10571,36 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D61">
-        <v>25</v>
-      </c>
-      <c r="E61">
-        <v>25</v>
-      </c>
-      <c r="F61">
-        <v>22</v>
-      </c>
-      <c r="G61">
-        <v>19</v>
-      </c>
-      <c r="H61">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>228</v>
-      </c>
-      <c r="J61" t="s">
-        <v>228</v>
-      </c>
-      <c r="K61" t="s">
-        <v>228</v>
-      </c>
-      <c r="L61" t="s">
-        <v>228</v>
-      </c>
-      <c r="M61" t="s">
-        <v>228</v>
-      </c>
-      <c r="N61" t="s">
-        <v>228</v>
-      </c>
-      <c r="O61" t="s">
-        <v>228</v>
-      </c>
-      <c r="P61" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>228</v>
-      </c>
-      <c r="R61" t="s">
-        <v>228</v>
-      </c>
-      <c r="S61" t="s">
-        <v>228</v>
-      </c>
-      <c r="T61" t="s">
-        <v>228</v>
-      </c>
-      <c r="U61" t="s">
-        <v>228</v>
-      </c>
-      <c r="V61" t="s">
-        <v>228</v>
-      </c>
-      <c r="W61" t="s">
-        <v>228</v>
-      </c>
-      <c r="X61" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -12230,92 +10611,36 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D62">
-        <v>21</v>
-      </c>
-      <c r="E62">
-        <v>22</v>
-      </c>
-      <c r="F62">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>228</v>
-      </c>
-      <c r="H62" t="s">
-        <v>228</v>
-      </c>
-      <c r="I62" t="s">
-        <v>228</v>
-      </c>
-      <c r="J62" t="s">
-        <v>228</v>
-      </c>
-      <c r="K62" t="s">
-        <v>228</v>
-      </c>
-      <c r="L62" t="s">
-        <v>228</v>
-      </c>
-      <c r="M62" t="s">
-        <v>228</v>
-      </c>
-      <c r="N62" t="s">
-        <v>228</v>
-      </c>
-      <c r="O62" t="s">
-        <v>228</v>
-      </c>
-      <c r="P62" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>228</v>
-      </c>
-      <c r="R62" t="s">
-        <v>228</v>
-      </c>
-      <c r="S62" t="s">
-        <v>228</v>
-      </c>
-      <c r="T62" t="s">
-        <v>228</v>
-      </c>
-      <c r="U62" t="s">
-        <v>228</v>
-      </c>
-      <c r="V62" t="s">
-        <v>228</v>
-      </c>
-      <c r="W62" t="s">
-        <v>228</v>
-      </c>
-      <c r="X62" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -12326,92 +10651,36 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D63">
-        <v>10</v>
-      </c>
-      <c r="E63">
-        <v>29</v>
-      </c>
-      <c r="F63">
-        <v>24</v>
-      </c>
-      <c r="G63">
-        <v>21</v>
-      </c>
-      <c r="H63">
-        <v>21</v>
-      </c>
-      <c r="I63" t="s">
-        <v>228</v>
-      </c>
-      <c r="J63" t="s">
-        <v>228</v>
-      </c>
-      <c r="K63" t="s">
-        <v>228</v>
-      </c>
-      <c r="L63" t="s">
-        <v>228</v>
-      </c>
-      <c r="M63" t="s">
-        <v>228</v>
-      </c>
-      <c r="N63" t="s">
-        <v>228</v>
-      </c>
-      <c r="O63" t="s">
-        <v>228</v>
-      </c>
-      <c r="P63" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>228</v>
-      </c>
-      <c r="R63" t="s">
-        <v>228</v>
-      </c>
-      <c r="S63" t="s">
-        <v>228</v>
-      </c>
-      <c r="T63" t="s">
-        <v>228</v>
-      </c>
-      <c r="U63" t="s">
-        <v>228</v>
-      </c>
-      <c r="V63" t="s">
-        <v>228</v>
-      </c>
-      <c r="W63" t="s">
-        <v>228</v>
-      </c>
-      <c r="X63" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -12422,92 +10691,36 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D64">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" t="s">
-        <v>228</v>
-      </c>
-      <c r="G64" t="s">
-        <v>228</v>
-      </c>
-      <c r="H64" t="s">
-        <v>228</v>
-      </c>
-      <c r="I64" t="s">
-        <v>228</v>
-      </c>
-      <c r="J64" t="s">
-        <v>228</v>
-      </c>
-      <c r="K64" t="s">
-        <v>228</v>
-      </c>
-      <c r="L64" t="s">
-        <v>228</v>
-      </c>
-      <c r="M64" t="s">
-        <v>228</v>
-      </c>
-      <c r="N64" t="s">
-        <v>228</v>
-      </c>
-      <c r="O64" t="s">
-        <v>228</v>
-      </c>
-      <c r="P64" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>228</v>
-      </c>
-      <c r="R64" t="s">
-        <v>228</v>
-      </c>
-      <c r="S64" t="s">
-        <v>228</v>
-      </c>
-      <c r="T64" t="s">
-        <v>228</v>
-      </c>
-      <c r="U64" t="s">
-        <v>228</v>
-      </c>
-      <c r="V64" t="s">
-        <v>228</v>
-      </c>
-      <c r="W64" t="s">
-        <v>228</v>
-      </c>
-      <c r="X64" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -12518,92 +10731,36 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D65">
-        <v>15</v>
-      </c>
-      <c r="E65" t="s">
-        <v>228</v>
-      </c>
-      <c r="F65" t="s">
-        <v>228</v>
-      </c>
-      <c r="G65" t="s">
-        <v>228</v>
-      </c>
-      <c r="H65" t="s">
-        <v>228</v>
-      </c>
-      <c r="I65" t="s">
-        <v>228</v>
-      </c>
-      <c r="J65" t="s">
-        <v>228</v>
-      </c>
-      <c r="K65" t="s">
-        <v>228</v>
-      </c>
-      <c r="L65" t="s">
-        <v>228</v>
-      </c>
-      <c r="M65" t="s">
-        <v>228</v>
-      </c>
-      <c r="N65" t="s">
-        <v>228</v>
-      </c>
-      <c r="O65" t="s">
-        <v>228</v>
-      </c>
-      <c r="P65" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>228</v>
-      </c>
-      <c r="R65" t="s">
-        <v>228</v>
-      </c>
-      <c r="S65" t="s">
-        <v>228</v>
-      </c>
-      <c r="T65" t="s">
-        <v>228</v>
-      </c>
-      <c r="U65" t="s">
-        <v>228</v>
-      </c>
-      <c r="V65" t="s">
-        <v>228</v>
-      </c>
-      <c r="W65" t="s">
-        <v>228</v>
-      </c>
-      <c r="X65" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -12614,92 +10771,36 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D66">
-        <v>25</v>
-      </c>
-      <c r="E66" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" t="s">
-        <v>228</v>
-      </c>
-      <c r="G66" t="s">
-        <v>228</v>
-      </c>
-      <c r="H66" t="s">
-        <v>228</v>
-      </c>
-      <c r="I66" t="s">
-        <v>228</v>
-      </c>
-      <c r="J66" t="s">
-        <v>228</v>
-      </c>
-      <c r="K66" t="s">
-        <v>228</v>
-      </c>
-      <c r="L66" t="s">
-        <v>228</v>
-      </c>
-      <c r="M66" t="s">
-        <v>228</v>
-      </c>
-      <c r="N66" t="s">
-        <v>228</v>
-      </c>
-      <c r="O66" t="s">
-        <v>228</v>
-      </c>
-      <c r="P66" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>228</v>
-      </c>
-      <c r="R66" t="s">
-        <v>228</v>
-      </c>
-      <c r="S66" t="s">
-        <v>228</v>
-      </c>
-      <c r="T66" t="s">
-        <v>228</v>
-      </c>
-      <c r="U66" t="s">
-        <v>228</v>
-      </c>
-      <c r="V66" t="s">
-        <v>228</v>
-      </c>
-      <c r="W66" t="s">
-        <v>228</v>
-      </c>
-      <c r="X66" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -12710,97 +10811,41 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" si="0"/>
-        <v>404</v>
-      </c>
-      <c r="D67">
-        <v>20</v>
-      </c>
-      <c r="E67">
-        <v>29</v>
-      </c>
-      <c r="F67">
-        <v>22</v>
-      </c>
-      <c r="G67">
-        <v>11</v>
-      </c>
-      <c r="H67">
-        <v>14</v>
-      </c>
-      <c r="I67">
-        <v>17</v>
-      </c>
-      <c r="J67">
-        <v>17</v>
-      </c>
-      <c r="K67">
-        <v>13</v>
-      </c>
-      <c r="L67">
-        <v>21</v>
-      </c>
-      <c r="M67">
-        <v>11</v>
-      </c>
-      <c r="N67">
-        <v>19</v>
-      </c>
-      <c r="O67">
-        <v>17</v>
-      </c>
-      <c r="P67">
-        <v>18</v>
-      </c>
-      <c r="Q67">
-        <v>20</v>
-      </c>
-      <c r="R67">
-        <v>8</v>
-      </c>
-      <c r="S67">
-        <v>21</v>
-      </c>
-      <c r="T67">
-        <v>18</v>
-      </c>
-      <c r="U67">
-        <v>24</v>
-      </c>
-      <c r="V67">
-        <v>21</v>
-      </c>
-      <c r="W67">
-        <v>15</v>
-      </c>
-      <c r="X67">
-        <v>27</v>
-      </c>
-      <c r="Y67">
-        <v>21</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <f>SUM(C2:C67)</f>
-        <v>31088</v>
+        <v>29194</v>
       </c>
     </row>
   </sheetData>
@@ -12808,6 +10853,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802DE777-D78B-494E-8883-668DACFE3188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C792D916-30CD-471C-9A90-4F94EFD55CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,15 +819,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,17 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -884,13 +866,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -898,12 +879,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,13 +1261,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3276,11 +3254,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3267,7 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,98 +3275,95 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="2">
         <v>1189</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>1189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="2">
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>1184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="2">
         <v>1183</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>1174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>1162</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>1152</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>1135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>1118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>1098</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3396,7 +3371,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3404,7 +3379,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3412,7 +3387,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4726,11 +4701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
   <dimension ref="A1:EW68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10131,14 +10106,26 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
+        <v>155</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>33</v>
+      </c>
+      <c r="I50">
+        <v>24</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -10171,12 +10158,20 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
+        <v>104</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
@@ -10211,12 +10206,20 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>23</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
+      </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
@@ -10251,13 +10254,23 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
+        <v>89</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>28</v>
+      </c>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -10291,11 +10304,17 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -10331,14 +10350,26 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+        <v>113</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>25</v>
+      </c>
+      <c r="I55">
+        <v>21</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -10371,12 +10402,20 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
+        <v>83</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>26</v>
+      </c>
+      <c r="F56">
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <v>22</v>
+      </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
@@ -10411,11 +10450,17 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
@@ -10451,9 +10496,11 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D58"/>
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
@@ -10491,21 +10538,47 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
+        <v>303</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>14</v>
+      </c>
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>28</v>
+      </c>
+      <c r="K59">
+        <v>13</v>
+      </c>
+      <c r="L59">
+        <v>28</v>
+      </c>
+      <c r="M59">
+        <v>39</v>
+      </c>
+      <c r="N59">
+        <v>40</v>
+      </c>
+      <c r="O59">
+        <v>29</v>
+      </c>
+      <c r="P59">
+        <v>25</v>
+      </c>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
@@ -10531,13 +10604,23 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
+        <v>108</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>26</v>
+      </c>
+      <c r="F60">
+        <v>18</v>
+      </c>
+      <c r="G60">
+        <v>17</v>
+      </c>
+      <c r="H60">
+        <v>20</v>
+      </c>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -10571,13 +10654,23 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
+        <v>105</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+      <c r="F61">
+        <v>22</v>
+      </c>
+      <c r="G61">
+        <v>19</v>
+      </c>
+      <c r="H61">
+        <v>14</v>
+      </c>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -10611,11 +10704,17 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>18</v>
+      </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
@@ -10651,13 +10750,23 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <v>21</v>
+      </c>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -10691,9 +10800,11 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D64"/>
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
@@ -10731,9 +10842,11 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D65"/>
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
@@ -10771,9 +10884,11 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D66"/>
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
@@ -10811,30 +10926,74 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
+        <v>404</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>22</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+      <c r="H67">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>17</v>
+      </c>
+      <c r="K67">
+        <v>13</v>
+      </c>
+      <c r="L67">
+        <v>21</v>
+      </c>
+      <c r="M67">
+        <v>11</v>
+      </c>
+      <c r="N67">
+        <v>19</v>
+      </c>
+      <c r="O67">
+        <v>17</v>
+      </c>
+      <c r="P67">
+        <v>18</v>
+      </c>
+      <c r="Q67">
+        <v>20</v>
+      </c>
+      <c r="R67">
+        <v>8</v>
+      </c>
+      <c r="S67">
+        <v>21</v>
+      </c>
+      <c r="T67">
+        <v>18</v>
+      </c>
+      <c r="U67">
+        <v>24</v>
+      </c>
+      <c r="V67">
+        <v>21</v>
+      </c>
+      <c r="W67">
+        <v>15</v>
+      </c>
+      <c r="X67">
+        <v>27</v>
+      </c>
+      <c r="Y67">
+        <v>21</v>
+      </c>
       <c r="Z67"/>
       <c r="AA67"/>
       <c r="AB67"/>
@@ -10845,7 +11004,7 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <f>SUM(C2:C67)</f>
-        <v>29194</v>
+        <v>31089</v>
       </c>
     </row>
   </sheetData>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C792D916-30CD-471C-9A90-4F94EFD55CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D095D5E-FCE5-4C50-98C5-5C76C72482CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="2355" windowWidth="5805" windowHeight="15510" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -3256,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC86EBCD-116E-48E7-A257-C35B58BA5FDB}">
   <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4701,11 +4701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
   <dimension ref="A1:EW68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C67" si="0">SUM(D4:EW4)</f>
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -5593,7 +5593,7 @@
         <v>46</v>
       </c>
       <c r="AD4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>224</v>
@@ -11004,7 +11004,7 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <f>SUM(C2:C67)</f>
-        <v>31089</v>
+        <v>31102</v>
       </c>
     </row>
   </sheetData>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D095D5E-FCE5-4C50-98C5-5C76C72482CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A859F3FB-EF0A-483B-AE8F-30653A39EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="2355" windowWidth="5805" windowHeight="15510" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Chapters Count'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Verse Data'!$A$1:$EW$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Verse Data'!$A$1:$EX$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Verses Count'!$A$1:$B$1</definedName>
-    <definedName name="Torah" localSheetId="3">'Verse Data'!$B$1:$BB$6</definedName>
+    <definedName name="Torah" localSheetId="3">'Verse Data'!$B$1:$BC$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="226">
   <si>
     <t>Book</t>
   </si>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TotalChapters</t>
   </si>
 </sst>
 </file>
@@ -4699,26 +4702,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}">
-  <dimension ref="A1:EW68"/>
+  <dimension ref="A1:EX68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="102" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="103" max="153" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="103" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="104" max="154" width="11" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:154" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -4728,458 +4732,461 @@
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DM1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="DM1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DP1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="DY1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="DY1" s="3" t="s">
+      <c r="DZ1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="DZ1" s="3" t="s">
+      <c r="EA1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EC1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="ED1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="ES1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:153" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5187,161 +5194,165 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(D2:EW2)</f>
+        <f>SUM(E2:EX2)</f>
         <v>1533</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
+        <f>COUNT(E2:EX2)</f>
+        <v>50</v>
+      </c>
+      <c r="E2">
         <v>31</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>24</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>22</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>24</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>22</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>29</v>
-      </c>
-      <c r="M2">
-        <v>32</v>
       </c>
       <c r="N2">
         <v>32</v>
       </c>
       <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2">
         <v>20</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>18</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>24</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>21</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>16</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>27</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>33</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>38</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>18</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>34</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>20</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>67</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>34</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>35</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>46</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>22</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>35</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>43</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>55</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>32</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>20</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>31</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>29</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>43</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>36</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>30</v>
-      </c>
-      <c r="AP2">
-        <v>23</v>
       </c>
       <c r="AQ2">
         <v>23</v>
       </c>
       <c r="AR2">
+        <v>23</v>
+      </c>
+      <c r="AS2">
         <v>57</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>38</v>
-      </c>
-      <c r="AT2">
-        <v>34</v>
       </c>
       <c r="AU2">
         <v>34</v>
       </c>
       <c r="AV2">
+        <v>34</v>
+      </c>
+      <c r="AW2">
         <v>28</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>34</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>31</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>22</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>33</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5349,132 +5360,133 @@
         <v>3</v>
       </c>
       <c r="C3" s="4">
-        <f>SUM(D3:EW3)</f>
+        <f>SUM(E3:EX3)</f>
         <v>1213</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D66" si="0">COUNT(E3:EX3)</f>
+        <v>40</v>
+      </c>
+      <c r="E3">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>31</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>23</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>30</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>35</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>29</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>10</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>51</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>22</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>31</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>27</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>36</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>16</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>27</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>25</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>26</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>36</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>31</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>33</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>18</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>40</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>37</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>21</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>43</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>46</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>38</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>18</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>35</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>23</v>
-      </c>
-      <c r="AK3">
-        <v>35</v>
       </c>
       <c r="AL3">
         <v>35</v>
       </c>
       <c r="AM3">
+        <v>35</v>
+      </c>
+      <c r="AN3">
         <v>38</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>29</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>31</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>43</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>38</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="AS3" s="4" t="s">
         <v>224</v>
       </c>
@@ -5502,8 +5514,11 @@
       <c r="BA3" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BB3" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5511,93 +5526,94 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C67" si="0">SUM(D4:EW4)</f>
+        <f t="shared" ref="C4:C67" si="1">SUM(E4:EX4)</f>
         <v>859</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>38</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>36</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>24</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>47</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>8</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>59</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>57</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>33</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>34</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>16</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>30</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>37</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>27</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>24</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>33</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>44</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>23</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>55</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>46</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>34</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="AF4" s="4" t="s">
         <v>224</v>
       </c>
@@ -5664,8 +5680,11 @@
       <c r="BA4" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BB4" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5673,120 +5692,121 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>1288</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1288</v>
-      </c>
-      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
         <v>54</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>51</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>49</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>31</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>89</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>26</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>23</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>36</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>35</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>16</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>33</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>45</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>41</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>50</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>13</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>32</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>22</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>29</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>35</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>41</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>30</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>25</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>18</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>65</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>23</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>31</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>40</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>16</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>54</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>42</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>56</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>29</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>34</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>13</v>
       </c>
-      <c r="AN5" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="AO5" s="4" t="s">
         <v>224</v>
       </c>
@@ -5826,8 +5846,11 @@
       <c r="BA5" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BB5" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5835,114 +5858,115 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>959</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>959</v>
-      </c>
-      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
         <v>46</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>37</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>49</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>33</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>25</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>29</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>22</v>
-      </c>
-      <c r="N6">
-        <v>32</v>
       </c>
       <c r="O6">
         <v>32</v>
       </c>
       <c r="P6">
+        <v>32</v>
+      </c>
+      <c r="Q6">
         <v>18</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>29</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>23</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>22</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>20</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>22</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>21</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>20</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>23</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>30</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>25</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>22</v>
-      </c>
-      <c r="AB6">
-        <v>19</v>
       </c>
       <c r="AC6">
         <v>19</v>
       </c>
       <c r="AD6">
+        <v>19</v>
+      </c>
+      <c r="AE6">
         <v>26</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>68</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>29</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>20</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>30</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>52</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>29</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>12</v>
       </c>
-      <c r="AL6" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="AM6" s="4" t="s">
         <v>224</v>
       </c>
@@ -5988,8 +6012,11 @@
       <c r="BA6" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BB6" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5997,84 +6024,85 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>658</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>658</v>
-      </c>
-      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>17</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>15</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>27</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>26</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>35</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>27</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>43</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>23</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>24</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>33</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>63</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>18</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>28</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>51</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>45</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>34</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>16</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>33</v>
       </c>
-      <c r="AB7" t="s">
-        <v>224</v>
-      </c>
       <c r="AC7" t="s">
         <v>224</v>
       </c>
@@ -6108,8 +6136,11 @@
       <c r="AM7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="8" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6117,75 +6148,76 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>618</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>618</v>
-      </c>
-      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>36</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>23</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>31</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>31</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>40</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>35</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>57</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>18</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>40</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>15</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>25</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
       </c>
       <c r="R8">
         <v>20</v>
       </c>
       <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
         <v>31</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>13</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>31</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>30</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>48</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="Y8" t="s">
-        <v>224</v>
-      </c>
       <c r="Z8" t="s">
         <v>224</v>
       </c>
@@ -6228,8 +6260,11 @@
       <c r="AM8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6237,24 +6272,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
-        <v>224</v>
-      </c>
       <c r="I9" t="s">
         <v>224</v>
       </c>
@@ -6348,8 +6384,11 @@
       <c r="AM9" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6357,105 +6396,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>810</v>
-      </c>
-      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>36</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>22</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>17</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>22</v>
-      </c>
-      <c r="L10">
-        <v>27</v>
       </c>
       <c r="M10">
         <v>27</v>
       </c>
       <c r="N10">
+        <v>27</v>
+      </c>
+      <c r="O10">
         <v>15</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>25</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>52</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>35</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>23</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>58</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>30</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>24</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>42</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>15</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>23</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>29</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>22</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>44</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>25</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>12</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>25</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>11</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>31</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>13</v>
       </c>
-      <c r="AI10" t="s">
-        <v>224</v>
-      </c>
       <c r="AJ10" t="s">
         <v>224</v>
       </c>
@@ -6468,8 +6508,11 @@
       <c r="AM10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6477,84 +6520,85 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>695</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>695</v>
-      </c>
-      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
         <v>27</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>32</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>39</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>25</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>29</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>18</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>13</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>19</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>27</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>31</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>39</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>33</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>37</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>23</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>29</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>33</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>43</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>26</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>22</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>51</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>39</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>25</v>
       </c>
-      <c r="AB11" t="s">
-        <v>224</v>
-      </c>
       <c r="AC11" t="s">
         <v>224</v>
       </c>
@@ -6588,8 +6632,11 @@
       <c r="AM11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="12" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6597,78 +6644,79 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>816</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>816</v>
-      </c>
-      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
         <v>53</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>46</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>34</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>38</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>51</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>66</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>28</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>29</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>43</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>33</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>34</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>31</v>
-      </c>
-      <c r="R12">
-        <v>34</v>
       </c>
       <c r="S12">
         <v>34</v>
       </c>
       <c r="T12">
+        <v>34</v>
+      </c>
+      <c r="U12">
         <v>24</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>46</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>21</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>43</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>29</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>53</v>
       </c>
-      <c r="Z12" t="s">
-        <v>224</v>
-      </c>
       <c r="AA12" t="s">
         <v>224</v>
       </c>
@@ -6708,8 +6756,11 @@
       <c r="AM12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="13" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6717,87 +6768,88 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>719</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>719</v>
-      </c>
-      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>27</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>27</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>33</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>29</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>37</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>36</v>
-      </c>
-      <c r="N13">
-        <v>21</v>
       </c>
       <c r="O13">
         <v>21</v>
       </c>
       <c r="P13">
+        <v>21</v>
+      </c>
+      <c r="Q13">
         <v>25</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>29</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>38</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>20</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>41</v>
-      </c>
-      <c r="U13">
-        <v>37</v>
       </c>
       <c r="V13">
         <v>37</v>
       </c>
       <c r="W13">
+        <v>37</v>
+      </c>
+      <c r="X13">
         <v>21</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>26</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>20</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>37</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>20</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>30</v>
       </c>
-      <c r="AC13" t="s">
-        <v>224</v>
-      </c>
       <c r="AD13" t="s">
         <v>224</v>
       </c>
@@ -6828,8 +6880,11 @@
       <c r="AM13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6837,99 +6892,100 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>942</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>942</v>
-      </c>
-      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
         <v>54</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>55</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>24</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>43</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>26</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>81</v>
-      </c>
-      <c r="J14">
-        <v>40</v>
       </c>
       <c r="K14">
         <v>40</v>
       </c>
       <c r="L14">
+        <v>40</v>
+      </c>
+      <c r="M14">
         <v>44</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>14</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>47</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>40</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>14</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>17</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>29</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>43</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>27</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>17</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>19</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>8</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>30</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>19</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>32</v>
-      </c>
-      <c r="AA14">
-        <v>31</v>
       </c>
       <c r="AB14">
         <v>31</v>
       </c>
       <c r="AC14">
+        <v>31</v>
+      </c>
+      <c r="AD14">
         <v>32</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>34</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>21</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>30</v>
       </c>
-      <c r="AG14" t="s">
-        <v>224</v>
-      </c>
       <c r="AH14" t="s">
         <v>224</v>
       </c>
@@ -6948,8 +7004,11 @@
       <c r="AM14" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6957,119 +7016,123 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>822</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>822</v>
-      </c>
-      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>17</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>22</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>42</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>22</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>18</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>31</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>19</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>23</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>16</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>22</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>15</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>19</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>14</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>19</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>34</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>11</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>37</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>20</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>12</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>21</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>27</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>28</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>23</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>9</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>27</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>36</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>27</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>21</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>33</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>25</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>33</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>27</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7077,42 +7140,43 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>70</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>24</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>17</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>22</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>28</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>36</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>15</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>44</v>
       </c>
-      <c r="N16" t="s">
-        <v>224</v>
-      </c>
       <c r="O16" t="s">
         <v>224</v>
       </c>
@@ -7188,8 +7252,11 @@
       <c r="AM16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7197,51 +7264,52 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>406</v>
-      </c>
-      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>23</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
       </c>
       <c r="I17">
         <v>19</v>
       </c>
       <c r="J17">
+        <v>19</v>
+      </c>
+      <c r="K17">
         <v>73</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>18</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>38</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>39</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>36</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>47</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>31</v>
       </c>
-      <c r="Q17" t="s">
-        <v>224</v>
-      </c>
       <c r="R17" t="s">
         <v>224</v>
       </c>
@@ -7308,8 +7376,11 @@
       <c r="AM17" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7317,48 +7388,49 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>17</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
       </c>
       <c r="I18">
         <v>14</v>
       </c>
       <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
         <v>10</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>17</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>32</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3</v>
       </c>
-      <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-      <c r="T18" t="s">
-        <v>224</v>
-      </c>
+      <c r="T18"/>
       <c r="U18" t="s">
         <v>224</v>
       </c>
@@ -7416,8 +7488,11 @@
       <c r="AM18" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="19" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AN18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7425,137 +7500,141 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>1070</v>
-      </c>
-      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>26</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>27</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>30</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>21</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>22</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>35</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>22</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>20</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>25</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>28</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>22</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>35</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>22</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>16</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>21</v>
-      </c>
-      <c r="V19">
-        <v>29</v>
       </c>
       <c r="W19">
         <v>29</v>
       </c>
       <c r="X19">
+        <v>29</v>
+      </c>
+      <c r="Y19">
         <v>34</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>30</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>17</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>25</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>6</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>14</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>23</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>28</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>25</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>31</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>40</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>22</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>33</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>37</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>16</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>33</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>24</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>41</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>30</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>24</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>34</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7563,461 +7642,465 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>2461</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>2461</v>
-      </c>
-      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
         <v>12</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>10</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>17</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>9</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>18</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>7</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>8</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>7</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>11</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>15</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>50</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>14</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>9</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>13</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>31</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>6</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>10</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>22</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>12</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>14</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>9</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>11</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>12</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>24</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>11</v>
-      </c>
-      <c r="AJ20">
-        <v>22</v>
       </c>
       <c r="AK20">
         <v>22</v>
       </c>
       <c r="AL20">
+        <v>22</v>
+      </c>
+      <c r="AM20">
         <v>28</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>12</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>40</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>22</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>13</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>17</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>13</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>11</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>5</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>26</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>17</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>11</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>9</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>14</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>20</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>23</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>19</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>9</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>6</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>7</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>23</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>13</v>
-      </c>
-      <c r="BH20">
-        <v>11</v>
       </c>
       <c r="BI20">
         <v>11</v>
       </c>
       <c r="BJ20">
+        <v>11</v>
+      </c>
+      <c r="BK20">
         <v>17</v>
       </c>
-      <c r="BK20">
+      <c r="BL20">
         <v>12</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>8</v>
       </c>
-      <c r="BM20">
+      <c r="BN20">
         <v>12</v>
       </c>
-      <c r="BN20">
+      <c r="BO20">
         <v>11</v>
       </c>
-      <c r="BO20">
+      <c r="BP20">
         <v>10</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>13</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>20</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>7</v>
       </c>
-      <c r="BS20">
+      <c r="BT20">
         <v>35</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>36</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>5</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>24</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>20</v>
       </c>
-      <c r="BX20">
+      <c r="BY20">
         <v>28</v>
       </c>
-      <c r="BY20">
+      <c r="BZ20">
         <v>23</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>10</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>12</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>20</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>72</v>
       </c>
-      <c r="CD20">
+      <c r="CE20">
         <v>13</v>
       </c>
-      <c r="CE20">
+      <c r="CF20">
         <v>19</v>
       </c>
-      <c r="CF20">
+      <c r="CG20">
         <v>16</v>
       </c>
-      <c r="CG20">
+      <c r="CH20">
         <v>8</v>
       </c>
-      <c r="CH20">
+      <c r="CI20">
         <v>18</v>
       </c>
-      <c r="CI20">
+      <c r="CJ20">
         <v>12</v>
       </c>
-      <c r="CJ20">
+      <c r="CK20">
         <v>13</v>
       </c>
-      <c r="CK20">
+      <c r="CL20">
         <v>17</v>
       </c>
-      <c r="CL20">
+      <c r="CM20">
         <v>7</v>
       </c>
-      <c r="CM20">
+      <c r="CN20">
         <v>18</v>
       </c>
-      <c r="CN20">
+      <c r="CO20">
         <v>52</v>
       </c>
-      <c r="CO20">
+      <c r="CP20">
         <v>17</v>
       </c>
-      <c r="CP20">
+      <c r="CQ20">
         <v>16</v>
       </c>
-      <c r="CQ20">
+      <c r="CR20">
         <v>15</v>
       </c>
-      <c r="CR20">
+      <c r="CS20">
         <v>5</v>
       </c>
-      <c r="CS20">
+      <c r="CT20">
         <v>23</v>
       </c>
-      <c r="CT20">
+      <c r="CU20">
         <v>11</v>
       </c>
-      <c r="CU20">
+      <c r="CV20">
         <v>13</v>
       </c>
-      <c r="CV20">
+      <c r="CW20">
         <v>12</v>
-      </c>
-      <c r="CW20">
-        <v>9</v>
       </c>
       <c r="CX20">
         <v>9</v>
       </c>
       <c r="CY20">
+        <v>9</v>
+      </c>
+      <c r="CZ20">
         <v>5</v>
       </c>
-      <c r="CZ20">
+      <c r="DA20">
         <v>8</v>
       </c>
-      <c r="DA20">
+      <c r="DB20">
         <v>28</v>
       </c>
-      <c r="DB20">
+      <c r="DC20">
         <v>22</v>
       </c>
-      <c r="DC20">
+      <c r="DD20">
         <v>35</v>
       </c>
-      <c r="DD20">
+      <c r="DE20">
         <v>45</v>
       </c>
-      <c r="DE20">
+      <c r="DF20">
         <v>48</v>
       </c>
-      <c r="DF20">
+      <c r="DG20">
         <v>43</v>
       </c>
-      <c r="DG20">
+      <c r="DH20">
         <v>13</v>
       </c>
-      <c r="DH20">
+      <c r="DI20">
         <v>31</v>
       </c>
-      <c r="DI20">
+      <c r="DJ20">
         <v>7</v>
-      </c>
-      <c r="DJ20">
-        <v>10</v>
       </c>
       <c r="DK20">
         <v>10</v>
       </c>
       <c r="DL20">
+        <v>10</v>
+      </c>
+      <c r="DM20">
         <v>9</v>
       </c>
-      <c r="DM20">
+      <c r="DN20">
         <v>8</v>
       </c>
-      <c r="DN20">
+      <c r="DO20">
         <v>18</v>
       </c>
-      <c r="DO20">
+      <c r="DP20">
         <v>19</v>
       </c>
-      <c r="DP20">
+      <c r="DQ20">
         <v>2</v>
       </c>
-      <c r="DQ20">
+      <c r="DR20">
         <v>29</v>
       </c>
-      <c r="DR20">
+      <c r="DS20">
         <v>176</v>
       </c>
-      <c r="DS20">
+      <c r="DT20">
         <v>7</v>
       </c>
-      <c r="DT20">
+      <c r="DU20">
         <v>8</v>
       </c>
-      <c r="DU20">
+      <c r="DV20">
         <v>9</v>
       </c>
-      <c r="DV20">
+      <c r="DW20">
         <v>4</v>
       </c>
-      <c r="DW20">
+      <c r="DX20">
         <v>8</v>
       </c>
-      <c r="DX20">
+      <c r="DY20">
         <v>5</v>
       </c>
-      <c r="DY20">
+      <c r="DZ20">
         <v>6</v>
       </c>
-      <c r="DZ20">
+      <c r="EA20">
         <v>5</v>
       </c>
-      <c r="EA20">
+      <c r="EB20">
         <v>6</v>
-      </c>
-      <c r="EB20">
-        <v>8</v>
       </c>
       <c r="EC20">
         <v>8</v>
       </c>
       <c r="ED20">
+        <v>8</v>
+      </c>
+      <c r="EE20">
         <v>3</v>
       </c>
-      <c r="EE20">
+      <c r="EF20">
         <v>18</v>
-      </c>
-      <c r="EF20">
-        <v>3</v>
       </c>
       <c r="EG20">
         <v>3</v>
       </c>
       <c r="EH20">
+        <v>3</v>
+      </c>
+      <c r="EI20">
         <v>21</v>
       </c>
-      <c r="EI20">
+      <c r="EJ20">
         <v>26</v>
       </c>
-      <c r="EJ20">
+      <c r="EK20">
         <v>9</v>
       </c>
-      <c r="EK20">
+      <c r="EL20">
         <v>8</v>
       </c>
-      <c r="EL20">
+      <c r="EM20">
         <v>24</v>
       </c>
-      <c r="EM20">
+      <c r="EN20">
         <v>13</v>
       </c>
-      <c r="EN20">
+      <c r="EO20">
         <v>10</v>
       </c>
-      <c r="EO20">
+      <c r="EP20">
         <v>7</v>
       </c>
-      <c r="EP20">
+      <c r="EQ20">
         <v>12</v>
       </c>
-      <c r="EQ20">
+      <c r="ER20">
         <v>15</v>
       </c>
-      <c r="ER20">
+      <c r="ES20">
         <v>21</v>
       </c>
-      <c r="ES20">
+      <c r="ET20">
         <v>10</v>
       </c>
-      <c r="ET20">
+      <c r="EU20">
         <v>20</v>
       </c>
-      <c r="EU20">
+      <c r="EV20">
         <v>14</v>
       </c>
-      <c r="EV20">
+      <c r="EW20">
         <v>9</v>
       </c>
-      <c r="EW20">
+      <c r="EX20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8025,104 +8108,108 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>915</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>915</v>
-      </c>
-      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
         <v>33</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>22</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>35</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>27</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>23</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>35</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>27</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>36</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>32</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>31</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>28</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>25</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>35</v>
-      </c>
-      <c r="R21">
-        <v>33</v>
       </c>
       <c r="S21">
         <v>33</v>
       </c>
       <c r="T21">
+        <v>33</v>
+      </c>
+      <c r="U21">
         <v>28</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>24</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>29</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>30</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>31</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>29</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>35</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>34</v>
-      </c>
-      <c r="AB21">
-        <v>28</v>
       </c>
       <c r="AC21">
         <v>28</v>
       </c>
       <c r="AD21">
+        <v>28</v>
+      </c>
+      <c r="AE21">
         <v>27</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>28</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>27</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>33</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8130,46 +8217,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>26</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>22</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>16</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>20</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>29</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>17</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>18</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>20</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>10</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>14</v>
       </c>
-      <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -8188,8 +8278,9 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
-    </row>
-    <row r="23" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AI22"/>
+    </row>
+    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8197,34 +8288,37 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>17</v>
       </c>
       <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
         <v>11</v>
-      </c>
-      <c r="G23">
-        <v>16</v>
       </c>
       <c r="H23">
         <v>16</v>
       </c>
       <c r="I23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J23">
         <v>13</v>
       </c>
       <c r="K23">
+        <v>13</v>
+      </c>
+      <c r="L23">
         <v>14</v>
       </c>
-      <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -8247,8 +8341,9 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
-    </row>
-    <row r="24" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="AI23"/>
+    </row>
+    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8256,209 +8351,213 @@
         <v>24</v>
       </c>
       <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>1292</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>1292</v>
-      </c>
-      <c r="D24">
+        <v>66</v>
+      </c>
+      <c r="E24">
         <v>31</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>22</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>26</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>30</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>13</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>25</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>22</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>21</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>34</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>16</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>6</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>22</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>32</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>9</v>
-      </c>
-      <c r="S24">
-        <v>14</v>
       </c>
       <c r="T24">
         <v>14</v>
       </c>
       <c r="U24">
+        <v>14</v>
+      </c>
+      <c r="V24">
         <v>7</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>25</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>6</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>17</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>25</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>18</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>23</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>12</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>21</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>13</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>29</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>24</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>33</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>9</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>20</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>24</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>17</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>10</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>22</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>38</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>22</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>8</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>31</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>29</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>25</v>
-      </c>
-      <c r="AT24">
-        <v>28</v>
       </c>
       <c r="AU24">
         <v>28</v>
       </c>
       <c r="AV24">
+        <v>28</v>
+      </c>
+      <c r="AW24">
         <v>25</v>
       </c>
-      <c r="AW24">
+      <c r="AX24">
         <v>13</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>15</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>22</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>26</v>
       </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>11</v>
       </c>
-      <c r="BB24">
+      <c r="BC24">
         <v>23</v>
       </c>
-      <c r="BC24">
+      <c r="BD24">
         <v>15</v>
       </c>
-      <c r="BD24">
+      <c r="BE24">
         <v>12</v>
       </c>
-      <c r="BE24">
+      <c r="BF24">
         <v>17</v>
       </c>
-      <c r="BF24">
+      <c r="BG24">
         <v>13</v>
       </c>
-      <c r="BG24">
+      <c r="BH24">
         <v>12</v>
       </c>
-      <c r="BH24">
+      <c r="BI24">
         <v>21</v>
       </c>
-      <c r="BI24">
+      <c r="BJ24">
         <v>14</v>
       </c>
-      <c r="BJ24">
+      <c r="BK24">
         <v>21</v>
       </c>
-      <c r="BK24">
+      <c r="BL24">
         <v>22</v>
       </c>
-      <c r="BL24">
+      <c r="BM24">
         <v>11</v>
       </c>
-      <c r="BM24">
+      <c r="BN24">
         <v>12</v>
       </c>
-      <c r="BN24">
+      <c r="BO24">
         <v>19</v>
       </c>
-      <c r="BO24">
+      <c r="BP24">
         <v>12</v>
       </c>
-      <c r="BP24">
+      <c r="BQ24">
         <v>25</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8466,166 +8565,169 @@
         <v>25</v>
       </c>
       <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>1364</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>1364</v>
-      </c>
-      <c r="D25">
+        <v>52</v>
+      </c>
+      <c r="E25">
         <v>19</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>37</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>25</v>
-      </c>
-      <c r="G25">
-        <v>31</v>
       </c>
       <c r="H25">
         <v>31</v>
       </c>
       <c r="I25">
+        <v>31</v>
+      </c>
+      <c r="J25">
         <v>30</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>34</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>22</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>26</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>25</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>23</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>17</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>27</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>22</v>
-      </c>
-      <c r="R25">
-        <v>21</v>
       </c>
       <c r="S25">
         <v>21</v>
       </c>
       <c r="T25">
+        <v>21</v>
+      </c>
+      <c r="U25">
         <v>27</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>23</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>15</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>18</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>14</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>30</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>40</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>10</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>38</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>24</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>22</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>17</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>32</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>24</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>40</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>44</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>26</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>22</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>19</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>32</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>21</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>28</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>18</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>16</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>18</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>22</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>13</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>30</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>5</v>
       </c>
-      <c r="AW25">
+      <c r="AX25">
         <v>28</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>7</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>47</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>39</v>
       </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>46</v>
       </c>
-      <c r="BB25">
+      <c r="BC25">
         <v>64</v>
       </c>
-      <c r="BC25">
+      <c r="BD25">
         <v>34</v>
       </c>
-      <c r="BD25"/>
       <c r="BE25"/>
       <c r="BF25"/>
       <c r="BG25"/>
@@ -8639,8 +8741,9 @@
       <c r="BO25"/>
       <c r="BP25"/>
       <c r="BQ25"/>
-    </row>
-    <row r="26" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BR25"/>
+    </row>
+    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8648,25 +8751,28 @@
         <v>26</v>
       </c>
       <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="D26">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>22</v>
       </c>
       <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
         <v>66</v>
-      </c>
-      <c r="G26">
-        <v>22</v>
       </c>
       <c r="H26">
         <v>22</v>
       </c>
-      <c r="I26"/>
+      <c r="I26">
+        <v>22</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -8727,8 +8833,9 @@
       <c r="BO26"/>
       <c r="BP26"/>
       <c r="BQ26"/>
-    </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BR26"/>
+    </row>
+    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8736,154 +8843,157 @@
         <v>27</v>
       </c>
       <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>1273</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>1273</v>
-      </c>
-      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27">
         <v>28</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>27</v>
-      </c>
-      <c r="G27">
-        <v>17</v>
       </c>
       <c r="H27">
         <v>17</v>
       </c>
       <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27">
         <v>14</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>27</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>18</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>11</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>22</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>25</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>28</v>
-      </c>
-      <c r="P27">
-        <v>23</v>
       </c>
       <c r="Q27">
         <v>23</v>
       </c>
       <c r="R27">
+        <v>23</v>
+      </c>
+      <c r="S27">
         <v>8</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>63</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>24</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>32</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>14</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>49</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>32</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>31</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>49</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>27</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>17</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>21</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>36</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>26</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>21</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>26</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>18</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>32</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>33</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>31</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>15</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>38</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>28</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>23</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <v>29</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>49</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>26</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>20</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>27</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>31</v>
       </c>
-      <c r="AV27">
+      <c r="AW27">
         <v>25</v>
       </c>
-      <c r="AW27">
+      <c r="AX27">
         <v>24</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
         <v>23</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>35</v>
       </c>
-      <c r="AZ27"/>
       <c r="BA27"/>
       <c r="BB27"/>
       <c r="BC27"/>
@@ -8901,8 +9011,9 @@
       <c r="BO27"/>
       <c r="BP27"/>
       <c r="BQ27"/>
-    </row>
-    <row r="28" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BR27"/>
+    </row>
+    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8910,46 +9021,49 @@
         <v>28</v>
       </c>
       <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>357</v>
-      </c>
-      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
         <v>21</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>49</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>37</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>31</v>
-      </c>
-      <c r="I28">
-        <v>28</v>
       </c>
       <c r="J28">
         <v>28</v>
       </c>
       <c r="K28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
         <v>21</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>45</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>13</v>
       </c>
-      <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -9003,8 +9117,9 @@
       <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28"/>
-    </row>
-    <row r="29" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BR28"/>
+    </row>
+    <row r="29" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9012,52 +9127,55 @@
         <v>29</v>
       </c>
       <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
         <v>11</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>23</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>19</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>15</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>11</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>16</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>14</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>17</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>15</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>12</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>14</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>16</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>9</v>
       </c>
-      <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -9109,8 +9227,9 @@
       <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
-    </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.25">
+      <c r="BR29"/>
+    </row>
+    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9118,20 +9237,24 @@
         <v>30</v>
       </c>
       <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
         <v>20</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>32</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9139,38 +9262,42 @@
         <v>31</v>
       </c>
       <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="D31" s="4">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4">
         <v>15</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>16</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>15</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>13</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>27</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>14</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>17</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>14</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9178,14 +9305,18 @@
         <v>32</v>
       </c>
       <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
         <v>21</v>
       </c>
-      <c r="D32" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9193,23 +9324,27 @@
         <v>33</v>
       </c>
       <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
         <v>17</v>
-      </c>
-      <c r="E33" s="4">
-        <v>10</v>
       </c>
       <c r="F33" s="4">
         <v>10</v>
       </c>
       <c r="G33" s="4">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9217,32 +9352,36 @@
         <v>34</v>
       </c>
       <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D34" s="4">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4">
         <v>16</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>13</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>12</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>13</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>15</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>16</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9250,20 +9389,24 @@
         <v>35</v>
       </c>
       <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
         <v>15</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>13</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9271,20 +9414,24 @@
         <v>36</v>
       </c>
       <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
         <v>17</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>20</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9292,20 +9439,24 @@
         <v>37</v>
       </c>
       <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
         <v>18</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>15</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9313,17 +9464,21 @@
         <v>38</v>
       </c>
       <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D38" s="4">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
         <v>15</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9331,53 +9486,57 @@
         <v>39</v>
       </c>
       <c r="C39" s="4">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
         <v>21</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>13</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>10</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>14</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>11</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>15</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>14</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>23</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>17</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>12</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>17</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>14</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>9</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9385,23 +9544,27 @@
         <v>40</v>
       </c>
       <c r="C40" s="4">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D40" s="4">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4">
         <v>14</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>17</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>18</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9409,95 +9572,99 @@
         <v>41</v>
       </c>
       <c r="C41" s="4">
+        <f t="shared" si="1"/>
+        <v>1071</v>
+      </c>
+      <c r="D41" s="4">
         <f t="shared" si="0"/>
-        <v>1071</v>
-      </c>
-      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>23</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>17</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>25</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>48</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>34</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>29</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>34</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>38</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>42</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>30</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>50</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>58</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>36</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>39</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>28</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>27</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>35</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>30</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>34</v>
-      </c>
-      <c r="X41">
-        <v>46</v>
       </c>
       <c r="Y41">
         <v>46</v>
       </c>
       <c r="Z41">
+        <v>46</v>
+      </c>
+      <c r="AA41">
         <v>39</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>51</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>46</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>75</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>66</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9505,58 +9672,61 @@
         <v>42</v>
       </c>
       <c r="C42" s="4">
+        <f t="shared" si="1"/>
+        <v>678</v>
+      </c>
+      <c r="D42" s="4">
         <f t="shared" si="0"/>
-        <v>678</v>
-      </c>
-      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
         <v>45</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>28</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>35</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>41</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>43</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>56</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>37</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>38</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>50</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>52</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>33</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>44</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>37</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>72</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>47</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>20</v>
       </c>
-      <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
@@ -9568,8 +9738,9 @@
       <c r="AC42"/>
       <c r="AD42"/>
       <c r="AE42"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF42"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9577,87 +9748,91 @@
         <v>43</v>
       </c>
       <c r="C43" s="4">
+        <f t="shared" si="1"/>
+        <v>1151</v>
+      </c>
+      <c r="D43" s="4">
         <f t="shared" si="0"/>
-        <v>1151</v>
-      </c>
-      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
         <v>80</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>52</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>38</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>44</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>39</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>49</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>50</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>56</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>62</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>42</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>54</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>59</v>
-      </c>
-      <c r="P43">
-        <v>35</v>
       </c>
       <c r="Q43">
         <v>35</v>
       </c>
       <c r="R43">
+        <v>35</v>
+      </c>
+      <c r="S43">
         <v>32</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>31</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>37</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>43</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>48</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>47</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>38</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>71</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>56</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>53</v>
       </c>
-      <c r="AB43"/>
       <c r="AC43"/>
       <c r="AD43"/>
       <c r="AE43"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF43"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9665,81 +9840,85 @@
         <v>44</v>
       </c>
       <c r="C44" s="4">
+        <f t="shared" si="1"/>
+        <v>879</v>
+      </c>
+      <c r="D44" s="4">
         <f t="shared" si="0"/>
-        <v>879</v>
-      </c>
-      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
         <v>51</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>25</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>36</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>54</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>47</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>71</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>53</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>59</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>41</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>42</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>57</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>50</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>38</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>31</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>27</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>33</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>26</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>40</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>42</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>31</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>25</v>
       </c>
-      <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF44"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9747,95 +9926,99 @@
         <v>45</v>
       </c>
       <c r="C45" s="4">
+        <f t="shared" si="1"/>
+        <v>1007</v>
+      </c>
+      <c r="D45" s="4">
         <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45">
         <v>26</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>47</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>26</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>37</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>42</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>15</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>60</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>40</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>43</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>48</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>30</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>25</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>52</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>28</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>41</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>40</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>34</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>28</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>41</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>38</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>40</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>30</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>35</v>
-      </c>
-      <c r="AA45">
-        <v>27</v>
       </c>
       <c r="AB45">
         <v>27</v>
       </c>
       <c r="AC45">
+        <v>27</v>
+      </c>
+      <c r="AD45">
         <v>32</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>44</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9843,58 +10026,61 @@
         <v>46</v>
       </c>
       <c r="C46" s="4">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="D46" s="4">
         <f t="shared" si="0"/>
-        <v>433</v>
-      </c>
-      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
         <v>32</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>29</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>31</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>25</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>21</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>23</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>25</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>39</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>33</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>21</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>36</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>21</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>14</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>23</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>33</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>27</v>
       </c>
-      <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
@@ -9906,8 +10092,9 @@
       <c r="AC46"/>
       <c r="AD46"/>
       <c r="AE46"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF46"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9915,58 +10102,61 @@
         <v>47</v>
       </c>
       <c r="C47" s="4">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="D47" s="4">
         <f t="shared" si="0"/>
-        <v>437</v>
-      </c>
-      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
         <v>31</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>16</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>23</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>21</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>13</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>20</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>40</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>13</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>27</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>33</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>34</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>31</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>13</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>40</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>58</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>24</v>
       </c>
-      <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
@@ -9978,8 +10168,9 @@
       <c r="AC47"/>
       <c r="AD47"/>
       <c r="AE47"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF47"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9987,49 +10178,52 @@
         <v>48</v>
       </c>
       <c r="C48" s="4">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="D48" s="4">
         <f t="shared" si="0"/>
-        <v>257</v>
-      </c>
-      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
         <v>24</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>17</v>
-      </c>
-      <c r="F48">
-        <v>18</v>
       </c>
       <c r="G48">
         <v>18</v>
       </c>
       <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
         <v>21</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>18</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>16</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>24</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>15</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>18</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>33</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>21</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>14</v>
       </c>
-      <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -10044,8 +10238,9 @@
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF48"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10053,28 +10248,31 @@
         <v>49</v>
       </c>
       <c r="C49" s="4">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="D49" s="4">
         <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
         <v>24</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>21</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>29</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>31</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>26</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>18</v>
       </c>
-      <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -10096,8 +10294,9 @@
       <c r="AC49"/>
       <c r="AD49"/>
       <c r="AE49"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF49"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10105,28 +10304,31 @@
         <v>50</v>
       </c>
       <c r="C50" s="4">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="D50" s="4">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
         <v>23</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>22</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>21</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>32</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>33</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>24</v>
       </c>
-      <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -10148,8 +10350,9 @@
       <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF50"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10157,22 +10360,25 @@
         <v>51</v>
       </c>
       <c r="C51" s="4">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="D51" s="4">
         <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="D51">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>30</v>
       </c>
       <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
         <v>21</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>23</v>
       </c>
-      <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -10196,8 +10402,9 @@
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF51"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10205,22 +10412,25 @@
         <v>52</v>
       </c>
       <c r="C52" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D52" s="4">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
         <v>29</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>23</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>25</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>18</v>
       </c>
-      <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -10244,8 +10454,9 @@
       <c r="AC52"/>
       <c r="AD52"/>
       <c r="AE52"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF52"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10253,25 +10464,28 @@
         <v>53</v>
       </c>
       <c r="C53" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D53" s="4">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
         <v>10</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>20</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>13</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>18</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>28</v>
       </c>
-      <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
@@ -10294,8 +10508,9 @@
       <c r="AC53"/>
       <c r="AD53"/>
       <c r="AE53"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF53"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10303,19 +10518,22 @@
         <v>54</v>
       </c>
       <c r="C54" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D54" s="4">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
         <v>12</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>17</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>18</v>
       </c>
-      <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
@@ -10340,8 +10558,9 @@
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF54"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10349,28 +10568,31 @@
         <v>55</v>
       </c>
       <c r="C55" s="4">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="D55" s="4">
         <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
         <v>20</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>15</v>
-      </c>
-      <c r="F55">
-        <v>16</v>
       </c>
       <c r="G55">
         <v>16</v>
       </c>
       <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55">
         <v>25</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>21</v>
       </c>
-      <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
@@ -10392,8 +10614,9 @@
       <c r="AC55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF55"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10401,22 +10624,25 @@
         <v>56</v>
       </c>
       <c r="C56" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D56" s="4">
         <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
         <v>18</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>26</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>17</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>22</v>
       </c>
-      <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -10440,8 +10666,9 @@
       <c r="AC56"/>
       <c r="AD56"/>
       <c r="AE56"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF56"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10449,19 +10676,22 @@
         <v>57</v>
       </c>
       <c r="C57" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D57" s="4">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
         <v>16</v>
-      </c>
-      <c r="E57">
-        <v>15</v>
       </c>
       <c r="F57">
         <v>15</v>
       </c>
-      <c r="G57"/>
+      <c r="G57">
+        <v>15</v>
+      </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
@@ -10486,8 +10716,9 @@
       <c r="AC57"/>
       <c r="AD57"/>
       <c r="AE57"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF57"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10495,13 +10726,16 @@
         <v>58</v>
       </c>
       <c r="C58" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D58" s="4">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>25</v>
       </c>
-      <c r="D58">
-        <v>25</v>
-      </c>
-      <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
@@ -10528,8 +10762,9 @@
       <c r="AC58"/>
       <c r="AD58"/>
       <c r="AE58"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF58"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10537,49 +10772,52 @@
         <v>59</v>
       </c>
       <c r="C59" s="4">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="D59" s="4">
         <f t="shared" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="D59">
+        <v>13</v>
+      </c>
+      <c r="E59">
         <v>14</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>18</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>19</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>16</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>14</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>20</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>28</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>13</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>28</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>39</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>40</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>29</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>25</v>
       </c>
-      <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59"/>
@@ -10594,8 +10832,9 @@
       <c r="AC59"/>
       <c r="AD59"/>
       <c r="AE59"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF59"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10603,25 +10842,28 @@
         <v>60</v>
       </c>
       <c r="C60" s="4">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D60" s="4">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
         <v>27</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>26</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>18</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>17</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>20</v>
       </c>
-      <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -10644,8 +10886,9 @@
       <c r="AC60"/>
       <c r="AD60"/>
       <c r="AE60"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF60"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10653,25 +10896,28 @@
         <v>61</v>
       </c>
       <c r="C61" s="4">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D61" s="4">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D61">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E61">
         <v>25</v>
       </c>
       <c r="F61">
+        <v>25</v>
+      </c>
+      <c r="G61">
         <v>22</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>19</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>14</v>
       </c>
-      <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -10694,8 +10940,9 @@
       <c r="AC61"/>
       <c r="AD61"/>
       <c r="AE61"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF61"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10703,19 +10950,22 @@
         <v>62</v>
       </c>
       <c r="C62" s="4">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D62" s="4">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
         <v>21</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>22</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>18</v>
       </c>
-      <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
@@ -10740,8 +10990,9 @@
       <c r="AC62"/>
       <c r="AD62"/>
       <c r="AE62"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF62"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10749,25 +11000,28 @@
         <v>63</v>
       </c>
       <c r="C63" s="4">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D63" s="4">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
         <v>10</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>29</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>24</v>
-      </c>
-      <c r="G63">
-        <v>21</v>
       </c>
       <c r="H63">
         <v>21</v>
       </c>
-      <c r="I63"/>
+      <c r="I63">
+        <v>21</v>
+      </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -10790,8 +11044,9 @@
       <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF63"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10799,13 +11054,16 @@
         <v>64</v>
       </c>
       <c r="C64" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D64" s="4">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>13</v>
       </c>
-      <c r="D64">
-        <v>13</v>
-      </c>
-      <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
@@ -10832,8 +11090,9 @@
       <c r="AC64"/>
       <c r="AD64"/>
       <c r="AE64"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF64"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10841,13 +11100,16 @@
         <v>65</v>
       </c>
       <c r="C65" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D65" s="4">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>14</v>
       </c>
-      <c r="D65">
-        <v>14</v>
-      </c>
-      <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -10874,8 +11136,9 @@
       <c r="AC65"/>
       <c r="AD65"/>
       <c r="AE65"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF65"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10883,13 +11146,16 @@
         <v>66</v>
       </c>
       <c r="C66" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D66" s="4">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>25</v>
       </c>
-      <c r="D66">
-        <v>25</v>
-      </c>
-      <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
@@ -10916,8 +11182,9 @@
       <c r="AC66"/>
       <c r="AD66"/>
       <c r="AE66"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF66"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10925,90 +11192,98 @@
         <v>67</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
+        <f t="shared" ref="D67" si="2">COUNT(E67:EX67)</f>
+        <v>22</v>
+      </c>
+      <c r="E67">
         <v>20</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>29</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>22</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>11</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>14</v>
-      </c>
-      <c r="I67">
-        <v>17</v>
       </c>
       <c r="J67">
         <v>17</v>
       </c>
       <c r="K67">
+        <v>17</v>
+      </c>
+      <c r="L67">
         <v>13</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>21</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>11</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>19</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>17</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>18</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>20</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>8</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>21</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>18</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>24</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>21</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>15</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>27</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>21</v>
       </c>
-      <c r="Z67"/>
       <c r="AA67"/>
       <c r="AB67"/>
       <c r="AC67"/>
       <c r="AD67"/>
       <c r="AE67"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF67"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <f>SUM(C2:C67)</f>
         <v>31102</v>
       </c>
+      <c r="D68" s="6">
+        <f>SUM(D2:D67)</f>
+        <v>1189</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EW67" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}"/>
+  <autoFilter ref="A1:EX67" xr:uid="{E697C1A6-2262-4EC1-8FB3-D0DD61AA811D}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A859F3FB-EF0A-483B-AE8F-30653A39EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B839247-43AB-4054-9608-1815890C9E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,7 +792,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +822,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,23 +880,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1264,13 +1279,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4705,18 +4720,18 @@
   <dimension ref="A1:EX68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="8.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="103" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="104" max="154" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -4729,10 +4744,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -5193,11 +5208,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <f>SUM(E2:EX2)</f>
         <v>1533</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <f>COUNT(E2:EX2)</f>
         <v>50</v>
       </c>
@@ -5359,11 +5374,11 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <f>SUM(E3:EX3)</f>
         <v>1213</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D66" si="0">COUNT(E3:EX3)</f>
         <v>40</v>
       </c>
@@ -5525,11 +5540,11 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C67" si="1">SUM(E4:EX4)</f>
         <v>859</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -5691,11 +5706,11 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <f t="shared" si="1"/>
         <v>1288</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -5857,11 +5872,11 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>959</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -6023,11 +6038,11 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>658</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -6147,11 +6162,11 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>618</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -6271,11 +6286,11 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -6395,11 +6410,11 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -6519,11 +6534,11 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>695</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -6643,11 +6658,11 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -6767,11 +6782,11 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
         <v>719</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -6891,11 +6906,11 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <f t="shared" si="1"/>
         <v>942</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -7015,11 +7030,11 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <f t="shared" si="1"/>
         <v>822</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -7139,11 +7154,11 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7263,11 +7278,11 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="8">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -7387,11 +7402,11 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7499,11 +7514,11 @@
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="8">
         <f t="shared" si="1"/>
         <v>1070</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -7641,11 +7656,11 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="8">
         <f t="shared" si="1"/>
         <v>2461</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -8107,11 +8122,11 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <f t="shared" si="1"/>
         <v>915</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -8216,11 +8231,11 @@
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -8287,11 +8302,11 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8350,11 +8365,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="8">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -8564,11 +8579,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="8">
         <f t="shared" si="1"/>
         <v>1364</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -8750,11 +8765,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="8">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8842,11 +8857,11 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="8">
         <f t="shared" si="1"/>
         <v>1273</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -9020,11 +9035,11 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="8">
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -9126,11 +9141,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="8">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -9236,11 +9251,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9261,11 +9276,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="8">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -9304,11 +9319,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="8">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9323,11 +9338,11 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="8">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -9351,11 +9366,11 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -9388,11 +9403,11 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9413,11 +9428,11 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9438,11 +9453,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="8">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9463,11 +9478,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="8">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -9485,11 +9500,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -9543,11 +9558,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="8">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -9571,11 +9586,11 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="8">
         <f t="shared" si="1"/>
         <v>1071</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -9671,11 +9686,11 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="8">
         <f t="shared" si="1"/>
         <v>678</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -9747,11 +9762,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="8">
         <f t="shared" si="1"/>
         <v>1151</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -9839,11 +9854,11 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="8">
         <f t="shared" si="1"/>
         <v>879</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -9925,11 +9940,11 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="8">
         <f t="shared" si="1"/>
         <v>1007</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -10025,11 +10040,11 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="8">
         <f t="shared" si="1"/>
         <v>433</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -10101,11 +10116,11 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="8">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -10177,11 +10192,11 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="8">
         <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -10247,11 +10262,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="8">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -10303,11 +10318,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="8">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -10359,11 +10374,11 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="8">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10411,11 +10426,11 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="8">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10463,11 +10478,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="8">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10517,11 +10532,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="8">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -10567,11 +10582,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="8">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -10623,11 +10638,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10675,11 +10690,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="8">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -10725,11 +10740,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10771,11 +10786,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="8">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -10841,11 +10856,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="8">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10895,11 +10910,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10949,11 +10964,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="8">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -10999,11 +11014,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -11053,11 +11068,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11099,11 +11114,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11145,11 +11160,11 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11191,11 +11206,11 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="8">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="8">
         <f t="shared" ref="D67" si="2">COUNT(E67:EX67)</f>
         <v>22</v>
       </c>
@@ -11273,11 +11288,11 @@
       <c r="AF67"/>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C68" s="6">
+      <c r="C68" s="9">
         <f>SUM(C2:C67)</f>
         <v>31102</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="9">
         <f>SUM(D2:D67)</f>
         <v>1189</v>
       </c>

--- a/ref/KJV Bible Info.xlsx
+++ b/ref/KJV Bible Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\Documents\GitHub\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B839247-43AB-4054-9608-1815890C9E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C5F7B-F1D5-4D48-8BA9-536B2F8765D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -834,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -886,7 +892,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -894,9 +900,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -4720,10 +4727,10 @@
   <dimension ref="A1:EX68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6481,7 +6488,7 @@
       <c r="Y10">
         <v>15</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="10">
         <v>23</v>
       </c>
       <c r="AA10">
